--- a/Книга2.xlsx
+++ b/Книга2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\GitHub\CH32V003-RUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEAD5B8-CAF9-4EBE-9734-9E0B56BA9F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7BEB10-72EC-42D5-85F4-C0451C79A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="420" windowWidth="14640" windowHeight="7380" firstSheet="3" activeTab="11" xr2:uid="{56B054F6-D698-48EB-895B-708225C2776F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56B054F6-D698-48EB-895B-708225C2776F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Лист9" sheetId="12" r:id="rId10"/>
     <sheet name="Лист11" sheetId="14" r:id="rId11"/>
     <sheet name="Лист10" sheetId="15" r:id="rId12"/>
+    <sheet name="Лист12" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="821">
   <si>
     <t>AWUPSC[3:0]</t>
   </si>
@@ -2456,12 +2457,66 @@
   <si>
     <t>ITR0(TS=011)</t>
   </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>EVT5</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>EVT6</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>DataN</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Frame header</t>
+  </si>
+  <si>
+    <t>EVT2</t>
+  </si>
+  <si>
+    <t>EVT1</t>
+  </si>
+  <si>
+    <t>EVT3_1</t>
+  </si>
+  <si>
+    <t>EVT3</t>
+  </si>
+  <si>
+    <t>7-бит передача слейва</t>
+  </si>
+  <si>
+    <t>10-бит передача слейва</t>
+  </si>
+  <si>
+    <t>EVT4</t>
+  </si>
+  <si>
+    <t>Ре з.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2549,6 +2604,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2576,7 +2639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -3185,12 +3248,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3690,365 +3832,413 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4366,13 +4556,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BBE607-6D8C-4538-A131-CC0DFABE4F77}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="R72" sqref="R72"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16" width="5" style="2" customWidth="1"/>
+    <col min="1" max="3" width="3.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3" style="2" customWidth="1"/>
+    <col min="8" max="12" width="5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -4432,24 +4631,24 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="201"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="223"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="224"/>
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17">
@@ -4503,28 +4702,28 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="202" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="225"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="202" t="s">
+      <c r="M5" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="202"/>
+      <c r="N5" s="225"/>
       <c r="O5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4588,24 +4787,24 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="201"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="223"/>
+      <c r="O9" s="223"/>
+      <c r="P9" s="224"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="9">
@@ -4658,28 +4857,28 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="184" t="s">
+      <c r="A11" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="186"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="209"/>
       <c r="N11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="205" t="s">
+      <c r="O11" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="P11" s="206"/>
+      <c r="P11" s="229"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1">
       <c r="A13" s="18" t="s">
@@ -4737,24 +4936,24 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="199" t="s">
+      <c r="A15" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="201"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="223"/>
+      <c r="O15" s="223"/>
+      <c r="P15" s="224"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="9">
@@ -4807,22 +5006,22 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
+      <c r="K17" s="221"/>
+      <c r="L17" s="221"/>
+      <c r="M17" s="221"/>
+      <c r="N17" s="221"/>
       <c r="O17" s="17" t="s">
         <v>5</v>
       </c>
@@ -4886,24 +5085,24 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="199" t="s">
+      <c r="A21" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="200"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="200"/>
-      <c r="P21" s="201"/>
+      <c r="B21" s="223"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
+      <c r="O21" s="223"/>
+      <c r="P21" s="224"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="9">
@@ -4956,26 +5155,26 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="197" t="s">
+      <c r="A23" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="198"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="202" t="s">
+      <c r="B23" s="221"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="202"/>
-      <c r="P23" s="203"/>
+      <c r="L23" s="225"/>
+      <c r="M23" s="225"/>
+      <c r="N23" s="225"/>
+      <c r="O23" s="225"/>
+      <c r="P23" s="226"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1">
       <c r="A25" s="15" t="s">
@@ -5033,24 +5232,24 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="199" t="s">
+      <c r="A27" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="200"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="200"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="200"/>
-      <c r="N27" s="200"/>
-      <c r="O27" s="200"/>
-      <c r="P27" s="201"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="223"/>
+      <c r="L27" s="223"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="223"/>
+      <c r="O27" s="223"/>
+      <c r="P27" s="224"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="9">
@@ -5103,26 +5302,26 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="197" t="s">
+      <c r="A29" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="198"/>
-      <c r="C29" s="198"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="198"/>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="202" t="s">
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="221"/>
+      <c r="L29" s="221"/>
+      <c r="M29" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="N29" s="202"/>
-      <c r="O29" s="202"/>
-      <c r="P29" s="203"/>
+      <c r="N29" s="225"/>
+      <c r="O29" s="225"/>
+      <c r="P29" s="226"/>
     </row>
     <row r="31" spans="1:16" ht="16.5" thickBot="1">
       <c r="A31" s="72" t="s">
@@ -5180,26 +5379,26 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="30">
-      <c r="A33" s="188" t="s">
+      <c r="A33" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="182"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="189"/>
+      <c r="B33" s="205"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="212"/>
       <c r="G33" s="23" t="s">
         <v>150</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="I33" s="188" t="s">
+      <c r="I33" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="189"/>
+      <c r="J33" s="205"/>
+      <c r="K33" s="205"/>
+      <c r="L33" s="212"/>
       <c r="M33" s="23" t="s">
         <v>152</v>
       </c>
@@ -5264,23 +5463,23 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="30.75" thickBot="1">
-      <c r="A35" s="184" t="s">
+      <c r="A35" s="207" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="185"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="187" t="s">
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="210" t="s">
         <v>157</v>
       </c>
-      <c r="J35" s="185"/>
-      <c r="K35" s="185"/>
-      <c r="L35" s="185"/>
-      <c r="M35" s="204"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="208"/>
+      <c r="L35" s="208"/>
+      <c r="M35" s="227"/>
       <c r="N35" s="6" t="s">
         <v>160</v>
       </c>
@@ -5347,27 +5546,27 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="30">
-      <c r="A39" s="188" t="s">
+      <c r="A39" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="182"/>
-      <c r="C39" s="182"/>
-      <c r="D39" s="182"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="181" t="s">
+      <c r="B39" s="205"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="212"/>
+      <c r="F39" s="204" t="s">
         <v>162</v>
       </c>
-      <c r="G39" s="182"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="181" t="s">
+      <c r="G39" s="205"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="J39" s="182"/>
-      <c r="K39" s="182"/>
-      <c r="L39" s="182"/>
-      <c r="M39" s="182"/>
-      <c r="N39" s="182"/>
-      <c r="O39" s="189"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="212"/>
       <c r="P39" s="73" t="s">
         <v>163</v>
       </c>
@@ -5423,32 +5622,32 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A41" s="184" t="s">
+      <c r="A41" s="207" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="185"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="187" t="s">
+      <c r="B41" s="208"/>
+      <c r="C41" s="208"/>
+      <c r="D41" s="208"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="185"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="187" t="s">
+      <c r="G41" s="208"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="210" t="s">
         <v>165</v>
       </c>
-      <c r="J41" s="185"/>
-      <c r="K41" s="185"/>
-      <c r="L41" s="186"/>
-      <c r="M41" s="187" t="s">
+      <c r="J41" s="208"/>
+      <c r="K41" s="208"/>
+      <c r="L41" s="209"/>
+      <c r="M41" s="210" t="s">
         <v>166</v>
       </c>
-      <c r="N41" s="186"/>
-      <c r="O41" s="187" t="s">
+      <c r="N41" s="209"/>
+      <c r="O41" s="210" t="s">
         <v>167</v>
       </c>
-      <c r="P41" s="204"/>
+      <c r="P41" s="227"/>
     </row>
     <row r="43" spans="1:16" ht="16.5" thickBot="1">
       <c r="A43" s="72" t="s">
@@ -5505,24 +5704,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="74" customFormat="1" ht="45">
-      <c r="A45" s="195" t="s">
+    <row r="45" spans="1:16" s="74" customFormat="1" ht="30">
+      <c r="A45" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="196"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="196"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="196"/>
-      <c r="G45" s="196"/>
-      <c r="H45" s="196"/>
+      <c r="B45" s="219"/>
+      <c r="C45" s="219"/>
+      <c r="D45" s="219"/>
+      <c r="E45" s="219"/>
+      <c r="F45" s="219"/>
+      <c r="G45" s="219"/>
+      <c r="H45" s="219"/>
       <c r="I45" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="J45" s="196" t="s">
+      <c r="J45" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="K45" s="196"/>
+      <c r="K45" s="219"/>
       <c r="L45" s="23" t="s">
         <v>170</v>
       </c>
@@ -5533,7 +5732,7 @@
         <v>172</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>160</v>
+        <v>820</v>
       </c>
       <c r="P45" s="48" t="s">
         <v>173</v>
@@ -5590,11 +5789,11 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="45.75" thickBot="1">
-      <c r="A47" s="197" t="s">
+      <c r="A47" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="198"/>
-      <c r="C47" s="198"/>
+      <c r="B47" s="221"/>
+      <c r="C47" s="221"/>
       <c r="D47" s="5" t="s">
         <v>174</v>
       </c>
@@ -5605,7 +5804,7 @@
         <v>176</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>160</v>
+        <v>820</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>177</v>
@@ -5613,10 +5812,10 @@
       <c r="I47" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="J47" s="198" t="s">
+      <c r="J47" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="K47" s="198"/>
+      <c r="K47" s="221"/>
       <c r="L47" s="5" t="s">
         <v>179</v>
       </c>
@@ -5627,7 +5826,7 @@
         <v>181</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>160</v>
+        <v>820</v>
       </c>
       <c r="P47" s="50" t="s">
         <v>182</v>
@@ -5689,24 +5888,24 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="199" t="s">
+      <c r="A51" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="200"/>
-      <c r="C51" s="200"/>
-      <c r="D51" s="200"/>
-      <c r="E51" s="200"/>
-      <c r="F51" s="200"/>
-      <c r="G51" s="200"/>
-      <c r="H51" s="200"/>
-      <c r="I51" s="200"/>
-      <c r="J51" s="200"/>
-      <c r="K51" s="200"/>
-      <c r="L51" s="200"/>
-      <c r="M51" s="200"/>
-      <c r="N51" s="200"/>
-      <c r="O51" s="200"/>
-      <c r="P51" s="201"/>
+      <c r="B51" s="223"/>
+      <c r="C51" s="223"/>
+      <c r="D51" s="223"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="223"/>
+      <c r="G51" s="223"/>
+      <c r="H51" s="223"/>
+      <c r="I51" s="223"/>
+      <c r="J51" s="223"/>
+      <c r="K51" s="223"/>
+      <c r="L51" s="223"/>
+      <c r="M51" s="223"/>
+      <c r="N51" s="223"/>
+      <c r="O51" s="223"/>
+      <c r="P51" s="224"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="9">
@@ -5780,11 +5979,11 @@
       <c r="G53" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H53" s="187" t="s">
+      <c r="H53" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="I53" s="185"/>
-      <c r="J53" s="186"/>
+      <c r="I53" s="208"/>
+      <c r="J53" s="209"/>
       <c r="K53" s="5" t="s">
         <v>188</v>
       </c>
@@ -5860,30 +6059,30 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="190" t="s">
+      <c r="A57" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="191"/>
-      <c r="C57" s="193"/>
+      <c r="B57" s="214"/>
+      <c r="C57" s="216"/>
       <c r="D57" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="E57" s="194" t="s">
+      <c r="E57" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="F57" s="191"/>
-      <c r="G57" s="191"/>
-      <c r="H57" s="191"/>
-      <c r="I57" s="191"/>
-      <c r="J57" s="193"/>
+      <c r="F57" s="214"/>
+      <c r="G57" s="214"/>
+      <c r="H57" s="214"/>
+      <c r="I57" s="214"/>
+      <c r="J57" s="216"/>
       <c r="K57" s="24"/>
-      <c r="L57" s="194" t="s">
+      <c r="L57" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="M57" s="191"/>
-      <c r="N57" s="191"/>
-      <c r="O57" s="191"/>
-      <c r="P57" s="192"/>
+      <c r="M57" s="214"/>
+      <c r="N57" s="214"/>
+      <c r="O57" s="214"/>
+      <c r="P57" s="215"/>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="9">
@@ -5936,27 +6135,27 @@
       </c>
     </row>
     <row r="59" spans="1:16" ht="45.75" thickBot="1">
-      <c r="A59" s="184" t="s">
+      <c r="A59" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="185"/>
-      <c r="C59" s="185"/>
-      <c r="D59" s="186"/>
+      <c r="B59" s="208"/>
+      <c r="C59" s="208"/>
+      <c r="D59" s="209"/>
       <c r="E59" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="187" t="s">
+      <c r="F59" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="G59" s="185"/>
-      <c r="H59" s="185"/>
-      <c r="I59" s="185"/>
-      <c r="J59" s="185"/>
-      <c r="K59" s="185"/>
-      <c r="L59" s="185"/>
-      <c r="M59" s="185"/>
-      <c r="N59" s="185"/>
-      <c r="O59" s="186"/>
+      <c r="G59" s="208"/>
+      <c r="H59" s="208"/>
+      <c r="I59" s="208"/>
+      <c r="J59" s="208"/>
+      <c r="K59" s="208"/>
+      <c r="L59" s="208"/>
+      <c r="M59" s="208"/>
+      <c r="N59" s="208"/>
+      <c r="O59" s="209"/>
       <c r="P59" s="50" t="s">
         <v>195</v>
       </c>
@@ -6017,24 +6216,24 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="190" t="s">
+      <c r="A63" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="191"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="191"/>
-      <c r="E63" s="191"/>
-      <c r="F63" s="191"/>
-      <c r="G63" s="191"/>
-      <c r="H63" s="191"/>
-      <c r="I63" s="191"/>
-      <c r="J63" s="191"/>
-      <c r="K63" s="191"/>
-      <c r="L63" s="191"/>
-      <c r="M63" s="191"/>
-      <c r="N63" s="191"/>
-      <c r="O63" s="191"/>
-      <c r="P63" s="192"/>
+      <c r="B63" s="214"/>
+      <c r="C63" s="214"/>
+      <c r="D63" s="214"/>
+      <c r="E63" s="214"/>
+      <c r="F63" s="214"/>
+      <c r="G63" s="214"/>
+      <c r="H63" s="214"/>
+      <c r="I63" s="214"/>
+      <c r="J63" s="214"/>
+      <c r="K63" s="214"/>
+      <c r="L63" s="214"/>
+      <c r="M63" s="214"/>
+      <c r="N63" s="214"/>
+      <c r="O63" s="214"/>
+      <c r="P63" s="215"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="9">
@@ -6087,21 +6286,21 @@
       </c>
     </row>
     <row r="65" spans="1:16" ht="45.75" thickBot="1">
-      <c r="A65" s="184" t="s">
+      <c r="A65" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="185"/>
-      <c r="C65" s="185"/>
-      <c r="D65" s="185"/>
-      <c r="E65" s="185"/>
-      <c r="F65" s="185"/>
-      <c r="G65" s="185"/>
-      <c r="H65" s="185"/>
-      <c r="I65" s="185"/>
-      <c r="J65" s="185"/>
-      <c r="K65" s="185"/>
-      <c r="L65" s="185"/>
-      <c r="M65" s="186"/>
+      <c r="B65" s="208"/>
+      <c r="C65" s="208"/>
+      <c r="D65" s="208"/>
+      <c r="E65" s="208"/>
+      <c r="F65" s="208"/>
+      <c r="G65" s="208"/>
+      <c r="H65" s="208"/>
+      <c r="I65" s="208"/>
+      <c r="J65" s="208"/>
+      <c r="K65" s="208"/>
+      <c r="L65" s="208"/>
+      <c r="M65" s="209"/>
       <c r="N65" s="5" t="s">
         <v>197</v>
       </c>
@@ -6168,24 +6367,24 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="190" t="s">
+      <c r="A69" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="191"/>
-      <c r="C69" s="191"/>
-      <c r="D69" s="191"/>
-      <c r="E69" s="191"/>
-      <c r="F69" s="191"/>
-      <c r="G69" s="191"/>
-      <c r="H69" s="191"/>
-      <c r="I69" s="191"/>
-      <c r="J69" s="191"/>
-      <c r="K69" s="191"/>
-      <c r="L69" s="191"/>
-      <c r="M69" s="191"/>
-      <c r="N69" s="191"/>
-      <c r="O69" s="191"/>
-      <c r="P69" s="192"/>
+      <c r="B69" s="214"/>
+      <c r="C69" s="214"/>
+      <c r="D69" s="214"/>
+      <c r="E69" s="214"/>
+      <c r="F69" s="214"/>
+      <c r="G69" s="214"/>
+      <c r="H69" s="214"/>
+      <c r="I69" s="214"/>
+      <c r="J69" s="214"/>
+      <c r="K69" s="214"/>
+      <c r="L69" s="214"/>
+      <c r="M69" s="214"/>
+      <c r="N69" s="214"/>
+      <c r="O69" s="214"/>
+      <c r="P69" s="215"/>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="9">
@@ -6259,11 +6458,11 @@
       <c r="G71" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H71" s="187" t="s">
+      <c r="H71" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="185"/>
-      <c r="J71" s="186"/>
+      <c r="I71" s="208"/>
+      <c r="J71" s="209"/>
       <c r="K71" s="5" t="s">
         <v>204</v>
       </c>
@@ -6339,32 +6538,32 @@
       </c>
     </row>
     <row r="75" spans="1:16" ht="30">
-      <c r="A75" s="188" t="s">
+      <c r="A75" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="182"/>
-      <c r="C75" s="189"/>
+      <c r="B75" s="205"/>
+      <c r="C75" s="212"/>
       <c r="D75" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="181" t="s">
+      <c r="E75" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="F75" s="182"/>
-      <c r="G75" s="182"/>
-      <c r="H75" s="182"/>
-      <c r="I75" s="182"/>
-      <c r="J75" s="189"/>
+      <c r="F75" s="205"/>
+      <c r="G75" s="205"/>
+      <c r="H75" s="205"/>
+      <c r="I75" s="205"/>
+      <c r="J75" s="212"/>
       <c r="K75" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="L75" s="181" t="s">
+      <c r="L75" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="M75" s="182"/>
-      <c r="N75" s="182"/>
-      <c r="O75" s="182"/>
-      <c r="P75" s="183"/>
+      <c r="M75" s="205"/>
+      <c r="N75" s="205"/>
+      <c r="O75" s="205"/>
+      <c r="P75" s="206"/>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="9">
@@ -6417,27 +6616,27 @@
       </c>
     </row>
     <row r="77" spans="1:16" ht="45.75" thickBot="1">
-      <c r="A77" s="184" t="s">
+      <c r="A77" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="185"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="186"/>
+      <c r="B77" s="208"/>
+      <c r="C77" s="208"/>
+      <c r="D77" s="209"/>
       <c r="E77" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F77" s="187" t="s">
+      <c r="F77" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="185"/>
-      <c r="H77" s="185"/>
-      <c r="I77" s="185"/>
-      <c r="J77" s="185"/>
-      <c r="K77" s="185"/>
-      <c r="L77" s="185"/>
-      <c r="M77" s="185"/>
-      <c r="N77" s="185"/>
-      <c r="O77" s="186"/>
+      <c r="G77" s="208"/>
+      <c r="H77" s="208"/>
+      <c r="I77" s="208"/>
+      <c r="J77" s="208"/>
+      <c r="K77" s="208"/>
+      <c r="L77" s="208"/>
+      <c r="M77" s="208"/>
+      <c r="N77" s="208"/>
+      <c r="O77" s="209"/>
       <c r="P77" s="50" t="s">
         <v>212</v>
       </c>
@@ -6522,16 +6721,16 @@
       <c r="H81" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I81" s="181" t="s">
+      <c r="I81" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="J81" s="182"/>
-      <c r="K81" s="182"/>
-      <c r="L81" s="182"/>
-      <c r="M81" s="182"/>
-      <c r="N81" s="182"/>
-      <c r="O81" s="182"/>
-      <c r="P81" s="183"/>
+      <c r="J81" s="205"/>
+      <c r="K81" s="205"/>
+      <c r="L81" s="205"/>
+      <c r="M81" s="205"/>
+      <c r="N81" s="205"/>
+      <c r="O81" s="205"/>
+      <c r="P81" s="206"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="9">
@@ -6584,22 +6783,22 @@
       </c>
     </row>
     <row r="83" spans="1:16" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A83" s="184" t="s">
+      <c r="A83" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="185"/>
-      <c r="C83" s="185"/>
-      <c r="D83" s="185"/>
-      <c r="E83" s="185"/>
-      <c r="F83" s="185"/>
-      <c r="G83" s="185"/>
-      <c r="H83" s="185"/>
-      <c r="I83" s="185"/>
-      <c r="J83" s="185"/>
-      <c r="K83" s="185"/>
-      <c r="L83" s="185"/>
-      <c r="M83" s="185"/>
-      <c r="N83" s="186"/>
+      <c r="B83" s="208"/>
+      <c r="C83" s="208"/>
+      <c r="D83" s="208"/>
+      <c r="E83" s="208"/>
+      <c r="F83" s="208"/>
+      <c r="G83" s="208"/>
+      <c r="H83" s="208"/>
+      <c r="I83" s="208"/>
+      <c r="J83" s="208"/>
+      <c r="K83" s="208"/>
+      <c r="L83" s="208"/>
+      <c r="M83" s="208"/>
+      <c r="N83" s="209"/>
       <c r="O83" s="5" t="s">
         <v>221</v>
       </c>
@@ -6830,18 +7029,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="316" t="s">
         <v>782</v>
       </c>
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="313" t="s">
         <v>783</v>
       </c>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="291"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="314"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="294"/>
+      <c r="A2" s="317"/>
       <c r="B2" s="118" t="s">
         <v>784</v>
       </c>
@@ -6987,8 +7186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC00F03-6E88-4D73-9ED2-1C21B1140C47}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7003,19 +7202,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="181" t="s">
         <v>798</v>
       </c>
-      <c r="B2" s="300" t="s">
+      <c r="B2" s="182" t="s">
         <v>799</v>
       </c>
-      <c r="C2" s="300" t="s">
+      <c r="C2" s="182" t="s">
         <v>800</v>
       </c>
-      <c r="D2" s="300" t="s">
+      <c r="D2" s="182" t="s">
         <v>801</v>
       </c>
-      <c r="E2" s="301" t="s">
+      <c r="E2" s="183" t="s">
         <v>802</v>
       </c>
     </row>
@@ -7028,7 +7227,7 @@
       </c>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
-      <c r="E3" s="302"/>
+      <c r="E3" s="184"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="135" t="s">
@@ -7039,9 +7238,311 @@
         <v>516</v>
       </c>
       <c r="D4" s="136"/>
-      <c r="E4" s="303"/>
+      <c r="E4" s="185"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F28F615-3DD5-4766-A34B-58CC6F8C5D7B}">
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" customWidth="1"/>
+    <col min="22" max="22" width="0.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="4.5" customHeight="1" thickBot="1">
+      <c r="A1" s="186"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A2" s="188"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="325" t="s">
+        <v>817</v>
+      </c>
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
+      <c r="F2" s="325"/>
+      <c r="G2" s="325"/>
+      <c r="H2" s="325"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="X2" s="191" t="s">
+        <v>815</v>
+      </c>
+      <c r="Y2" s="191" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A3" s="188"/>
+      <c r="B3" s="191" t="s">
+        <v>803</v>
+      </c>
+      <c r="C3" s="193" t="s">
+        <v>805</v>
+      </c>
+      <c r="D3" s="191" t="s">
+        <v>806</v>
+      </c>
+      <c r="F3" s="191" t="s">
+        <v>808</v>
+      </c>
+      <c r="G3" s="191" t="s">
+        <v>806</v>
+      </c>
+      <c r="H3" s="322" t="s">
+        <v>809</v>
+      </c>
+      <c r="I3" s="323"/>
+      <c r="J3" s="191" t="s">
+        <v>806</v>
+      </c>
+      <c r="L3" s="196"/>
+      <c r="M3" s="191" t="s">
+        <v>810</v>
+      </c>
+      <c r="N3" s="194" t="s">
+        <v>806</v>
+      </c>
+      <c r="O3" s="322" t="s">
+        <v>811</v>
+      </c>
+      <c r="P3" s="323"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="X3" s="322" t="s">
+        <v>809</v>
+      </c>
+      <c r="Y3" s="323"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A4" s="188"/>
+      <c r="B4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="191" t="s">
+        <v>814</v>
+      </c>
+      <c r="H4" s="191" t="s">
+        <v>813</v>
+      </c>
+      <c r="J4" s="192"/>
+      <c r="K4" s="191" t="s">
+        <v>813</v>
+      </c>
+      <c r="M4" s="192"/>
+      <c r="O4" s="191" t="s">
+        <v>813</v>
+      </c>
+      <c r="Q4" s="191" t="s">
+        <v>819</v>
+      </c>
+      <c r="R4" s="203"/>
+      <c r="S4" s="190"/>
+      <c r="T4" s="190"/>
+      <c r="U4" s="190"/>
+      <c r="V4" s="190"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A5" s="188"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="324" t="s">
+        <v>818</v>
+      </c>
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="324"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="190"/>
+      <c r="K5" s="190"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="190"/>
+      <c r="P5" s="190"/>
+      <c r="Q5" s="190"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="190"/>
+      <c r="T5" s="190"/>
+      <c r="U5" s="190"/>
+      <c r="V5" s="190"/>
+      <c r="X5" s="191" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="17.25" thickBot="1">
+      <c r="A6" s="188"/>
+      <c r="B6" s="191" t="s">
+        <v>803</v>
+      </c>
+      <c r="C6" s="193" t="s">
+        <v>812</v>
+      </c>
+      <c r="D6" s="191" t="s">
+        <v>806</v>
+      </c>
+      <c r="E6" s="191" t="s">
+        <v>805</v>
+      </c>
+      <c r="F6" s="191" t="s">
+        <v>806</v>
+      </c>
+      <c r="H6" s="191" t="s">
+        <v>808</v>
+      </c>
+      <c r="I6" s="191" t="s">
+        <v>806</v>
+      </c>
+      <c r="J6" s="190"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="194" t="s">
+        <v>810</v>
+      </c>
+      <c r="M6" s="191" t="s">
+        <v>806</v>
+      </c>
+      <c r="N6" s="322" t="s">
+        <v>811</v>
+      </c>
+      <c r="O6" s="323"/>
+      <c r="P6" s="190"/>
+      <c r="Q6" s="190"/>
+      <c r="R6" s="199"/>
+      <c r="S6" s="190"/>
+      <c r="T6" s="190"/>
+      <c r="U6" s="190"/>
+      <c r="V6" s="190"/>
+      <c r="X6" s="191" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A7" s="188"/>
+      <c r="B7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="G7" s="191" t="s">
+        <v>814</v>
+      </c>
+      <c r="H7" s="192"/>
+      <c r="J7" s="191" t="s">
+        <v>813</v>
+      </c>
+      <c r="K7" s="190"/>
+      <c r="L7" s="190"/>
+      <c r="M7" s="190"/>
+      <c r="N7" s="197" t="s">
+        <v>813</v>
+      </c>
+      <c r="O7" s="190"/>
+      <c r="P7" s="191" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q7" s="190"/>
+      <c r="R7" s="199"/>
+      <c r="S7" s="190"/>
+      <c r="T7" s="190"/>
+      <c r="U7" s="190"/>
+      <c r="V7" s="190"/>
+    </row>
+    <row r="8" spans="1:25" ht="4.5" customHeight="1" thickBot="1">
+      <c r="A8" s="200"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="190"/>
+      <c r="T8" s="190"/>
+      <c r="U8" s="190"/>
+      <c r="V8" s="190"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1">
+      <c r="X9" s="195"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7076,10 +7577,10 @@
       <c r="C1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="242" t="s">
+      <c r="D1" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="242"/>
+      <c r="E1" s="265"/>
       <c r="F1" s="35" t="s">
         <v>100</v>
       </c>
@@ -7094,150 +7595,150 @@
       <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="237" t="s">
+      <c r="D2" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="237"/>
+      <c r="E2" s="260"/>
       <c r="F2" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="19" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="243" t="s">
+      <c r="D3" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="244"/>
-      <c r="F3" s="183">
+      <c r="E3" s="267"/>
+      <c r="F3" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="19" customFormat="1">
-      <c r="A4" s="199"/>
-      <c r="B4" s="200"/>
-      <c r="C4" s="194"/>
+      <c r="A4" s="222"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="217"/>
       <c r="D4" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="183"/>
+      <c r="F4" s="206"/>
     </row>
     <row r="5" spans="1:6" s="19" customFormat="1">
-      <c r="A5" s="199"/>
-      <c r="B5" s="200"/>
-      <c r="C5" s="194"/>
+      <c r="A5" s="222"/>
+      <c r="B5" s="223"/>
+      <c r="C5" s="217"/>
       <c r="D5" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="183"/>
+      <c r="F5" s="206"/>
     </row>
     <row r="6" spans="1:6" s="19" customFormat="1">
-      <c r="A6" s="199"/>
-      <c r="B6" s="200"/>
-      <c r="C6" s="194"/>
+      <c r="A6" s="222"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="217"/>
       <c r="D6" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="183"/>
+      <c r="F6" s="206"/>
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="194"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="217"/>
       <c r="D7" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="183"/>
+      <c r="F7" s="206"/>
     </row>
     <row r="8" spans="1:6" s="19" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="194"/>
+      <c r="A8" s="222"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="217"/>
       <c r="D8" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="183"/>
+      <c r="F8" s="206"/>
     </row>
     <row r="9" spans="1:6" s="19" customFormat="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="194"/>
+      <c r="A9" s="222"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="217"/>
       <c r="D9" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="183"/>
+      <c r="F9" s="206"/>
     </row>
     <row r="10" spans="1:6" s="19" customFormat="1">
-      <c r="A10" s="199"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="194"/>
+      <c r="A10" s="222"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="217"/>
       <c r="D10" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="183"/>
+      <c r="F10" s="206"/>
     </row>
     <row r="11" spans="1:6" s="19" customFormat="1">
-      <c r="A11" s="199"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="194"/>
+      <c r="A11" s="222"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="217"/>
       <c r="D11" s="29" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="183"/>
+      <c r="F11" s="206"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="199" t="s">
+      <c r="A12" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="200" t="s">
+      <c r="B12" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="243" t="s">
+      <c r="D12" s="266" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="244"/>
+      <c r="E12" s="267"/>
       <c r="F12" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="199"/>
-      <c r="B13" s="200"/>
-      <c r="C13" s="194"/>
+      <c r="A13" s="222"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="217"/>
       <c r="D13" s="29" t="s">
         <v>17</v>
       </c>
@@ -7247,9 +7748,9 @@
       <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="199"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="194"/>
+      <c r="A14" s="222"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="217"/>
       <c r="D14" s="30" t="s">
         <v>16</v>
       </c>
@@ -7268,36 +7769,36 @@
       <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="238" t="s">
+      <c r="D15" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="238"/>
+      <c r="E15" s="261"/>
       <c r="F15" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="200" t="s">
+      <c r="B16" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="194" t="s">
+      <c r="C16" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="240" t="s">
+      <c r="D16" s="263" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="241"/>
+      <c r="E16" s="264"/>
       <c r="F16" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="199"/>
-      <c r="B17" s="200"/>
-      <c r="C17" s="194"/>
+      <c r="A17" s="222"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="217"/>
       <c r="D17" s="29" t="s">
         <v>17</v>
       </c>
@@ -7307,9 +7808,9 @@
       <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="199"/>
-      <c r="B18" s="200"/>
-      <c r="C18" s="194"/>
+      <c r="A18" s="222"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="217"/>
       <c r="D18" s="30" t="s">
         <v>16</v>
       </c>
@@ -7328,10 +7829,10 @@
       <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="236" t="s">
+      <c r="D19" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="236"/>
+      <c r="E19" s="259"/>
       <c r="F19" s="50">
         <v>0</v>
       </c>
@@ -7347,10 +7848,10 @@
       <c r="C21" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="225" t="s">
+      <c r="D21" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="225"/>
+      <c r="E21" s="248"/>
       <c r="F21" s="35" t="s">
         <v>34</v>
       </c>
@@ -7365,55 +7866,55 @@
       <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="227" t="s">
+      <c r="D22" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="227"/>
+      <c r="E22" s="250"/>
       <c r="F22" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A23" s="199" t="s">
+      <c r="A23" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="200" t="s">
+      <c r="B23" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="237" t="s">
+      <c r="C23" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="234" t="s">
+      <c r="D23" s="257" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="235"/>
-      <c r="F23" s="228">
+      <c r="E23" s="258"/>
+      <c r="F23" s="251">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="199"/>
-      <c r="B24" s="200"/>
-      <c r="C24" s="238"/>
+      <c r="A24" s="222"/>
+      <c r="B24" s="223"/>
+      <c r="C24" s="261"/>
       <c r="D24" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="229"/>
+      <c r="F24" s="252"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="199"/>
-      <c r="B25" s="200"/>
-      <c r="C25" s="239"/>
+      <c r="A25" s="222"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="262"/>
       <c r="D25" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="230"/>
+      <c r="F25" s="253"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="A26" s="37" t="s">
@@ -7425,10 +7926,10 @@
       <c r="C26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="226" t="s">
+      <c r="D26" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="226"/>
+      <c r="E26" s="249"/>
       <c r="F26" s="50">
         <v>0</v>
       </c>
@@ -7444,10 +7945,10 @@
       <c r="C28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="225" t="s">
+      <c r="D28" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="225"/>
+      <c r="E28" s="248"/>
       <c r="F28" s="35" t="s">
         <v>34</v>
       </c>
@@ -7462,55 +7963,55 @@
       <c r="C29" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="227" t="s">
+      <c r="D29" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="227"/>
+      <c r="E29" s="250"/>
       <c r="F29" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="200" t="s">
+      <c r="B30" s="223" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="231" t="s">
+      <c r="C30" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="234" t="s">
+      <c r="D30" s="257" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="235"/>
-      <c r="F30" s="228">
+      <c r="E30" s="258"/>
+      <c r="F30" s="251">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="199"/>
-      <c r="B31" s="200"/>
-      <c r="C31" s="232"/>
+      <c r="A31" s="222"/>
+      <c r="B31" s="223"/>
+      <c r="C31" s="255"/>
       <c r="D31" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="229"/>
+      <c r="F31" s="252"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="199"/>
-      <c r="B32" s="200"/>
-      <c r="C32" s="233"/>
+      <c r="A32" s="222"/>
+      <c r="B32" s="223"/>
+      <c r="C32" s="256"/>
       <c r="D32" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="230"/>
+      <c r="F32" s="253"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" s="37" t="s">
@@ -7522,10 +8023,10 @@
       <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="226" t="s">
+      <c r="D33" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="226"/>
+      <c r="E33" s="249"/>
       <c r="F33" s="50">
         <v>0</v>
       </c>
@@ -7543,10 +8044,10 @@
       <c r="C35" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="225" t="s">
+      <c r="D35" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="225"/>
+      <c r="E35" s="248"/>
       <c r="F35" s="35" t="s">
         <v>34</v>
       </c>
@@ -7561,10 +8062,10 @@
       <c r="C36" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="227" t="s">
+      <c r="D36" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="227"/>
+      <c r="E36" s="250"/>
       <c r="F36" s="48">
         <v>0</v>
       </c>
@@ -7579,10 +8080,10 @@
       <c r="C37" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="224" t="s">
+      <c r="D37" s="247" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="224"/>
+      <c r="E37" s="247"/>
       <c r="F37" s="50">
         <v>0</v>
       </c>
@@ -7600,10 +8101,10 @@
       <c r="C39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="225" t="s">
+      <c r="D39" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="225"/>
+      <c r="E39" s="248"/>
       <c r="F39" s="35" t="s">
         <v>34</v>
       </c>
@@ -7618,223 +8119,223 @@
       <c r="C40" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="213" t="s">
+      <c r="D40" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="214"/>
+      <c r="E40" s="237"/>
       <c r="F40" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="199" t="s">
+      <c r="A41" s="222" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="196" t="s">
+      <c r="B41" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="196" t="s">
+      <c r="C41" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="223" t="s">
+      <c r="D41" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="223"/>
-      <c r="F41" s="219">
+      <c r="E41" s="246"/>
+      <c r="F41" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="199"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
+      <c r="A42" s="222"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
       <c r="D42" s="27" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="219"/>
+      <c r="F42" s="242"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="199"/>
-      <c r="B43" s="196"/>
-      <c r="C43" s="196"/>
+      <c r="A43" s="222"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
       <c r="D43" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E43" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="219"/>
+      <c r="F43" s="242"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="199"/>
-      <c r="B44" s="196"/>
-      <c r="C44" s="196"/>
+      <c r="A44" s="222"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
       <c r="D44" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E44" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="219"/>
+      <c r="F44" s="242"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="199"/>
-      <c r="B45" s="196"/>
-      <c r="C45" s="196"/>
+      <c r="A45" s="222"/>
+      <c r="B45" s="219"/>
+      <c r="C45" s="219"/>
       <c r="D45" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="219"/>
+      <c r="F45" s="242"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="199"/>
-      <c r="B46" s="196"/>
-      <c r="C46" s="196"/>
+      <c r="A46" s="222"/>
+      <c r="B46" s="219"/>
+      <c r="C46" s="219"/>
       <c r="D46" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E46" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="219"/>
+      <c r="F46" s="242"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="199"/>
-      <c r="B47" s="196"/>
-      <c r="C47" s="196"/>
+      <c r="A47" s="222"/>
+      <c r="B47" s="219"/>
+      <c r="C47" s="219"/>
       <c r="D47" s="27" t="s">
         <v>70</v>
       </c>
       <c r="E47" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="219"/>
+      <c r="F47" s="242"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="199"/>
-      <c r="B48" s="196"/>
-      <c r="C48" s="196"/>
+      <c r="A48" s="222"/>
+      <c r="B48" s="219"/>
+      <c r="C48" s="219"/>
       <c r="D48" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="219"/>
+      <c r="F48" s="242"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="199"/>
-      <c r="B49" s="196"/>
-      <c r="C49" s="196"/>
+      <c r="A49" s="222"/>
+      <c r="B49" s="219"/>
+      <c r="C49" s="219"/>
       <c r="D49" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="219"/>
+      <c r="F49" s="242"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="199"/>
-      <c r="B50" s="196"/>
-      <c r="C50" s="196"/>
+      <c r="A50" s="222"/>
+      <c r="B50" s="219"/>
+      <c r="C50" s="219"/>
       <c r="D50" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E50" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="219"/>
+      <c r="F50" s="242"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="199"/>
-      <c r="B51" s="196"/>
-      <c r="C51" s="196"/>
+      <c r="A51" s="222"/>
+      <c r="B51" s="219"/>
+      <c r="C51" s="219"/>
       <c r="D51" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E51" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="219"/>
+      <c r="F51" s="242"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="199"/>
-      <c r="B52" s="196"/>
-      <c r="C52" s="196"/>
+      <c r="A52" s="222"/>
+      <c r="B52" s="219"/>
+      <c r="C52" s="219"/>
       <c r="D52" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E52" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="219"/>
+      <c r="F52" s="242"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="199"/>
-      <c r="B53" s="196"/>
-      <c r="C53" s="196"/>
+      <c r="A53" s="222"/>
+      <c r="B53" s="219"/>
+      <c r="C53" s="219"/>
       <c r="D53" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E53" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="F53" s="219"/>
+      <c r="F53" s="242"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="199"/>
-      <c r="B54" s="196"/>
-      <c r="C54" s="196"/>
+      <c r="A54" s="222"/>
+      <c r="B54" s="219"/>
+      <c r="C54" s="219"/>
       <c r="D54" s="27" t="s">
         <v>76</v>
       </c>
       <c r="E54" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="219"/>
+      <c r="F54" s="242"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="199"/>
-      <c r="B55" s="196"/>
-      <c r="C55" s="196"/>
+      <c r="A55" s="222"/>
+      <c r="B55" s="219"/>
+      <c r="C55" s="219"/>
       <c r="D55" s="27" t="s">
         <v>77</v>
       </c>
       <c r="E55" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="219"/>
+      <c r="F55" s="242"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="199"/>
-      <c r="B56" s="196"/>
-      <c r="C56" s="196"/>
+      <c r="A56" s="222"/>
+      <c r="B56" s="219"/>
+      <c r="C56" s="219"/>
       <c r="D56" s="27" t="s">
         <v>78</v>
       </c>
       <c r="E56" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F56" s="219"/>
+      <c r="F56" s="242"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A57" s="221"/>
-      <c r="B57" s="198"/>
-      <c r="C57" s="198"/>
+      <c r="A57" s="244"/>
+      <c r="B57" s="221"/>
+      <c r="C57" s="221"/>
       <c r="D57" s="42" t="s">
         <v>79</v>
       </c>
       <c r="E57" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F57" s="220"/>
+      <c r="F57" s="243"/>
     </row>
     <row r="58" spans="1:6">
       <c r="C58" s="22"/>
@@ -7850,10 +8351,10 @@
       <c r="C59" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="222" t="s">
+      <c r="D59" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="222"/>
+      <c r="E59" s="245"/>
       <c r="F59" s="83" t="s">
         <v>34</v>
       </c>
@@ -7868,55 +8369,55 @@
       <c r="C60" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="216" t="s">
+      <c r="D60" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="216"/>
+      <c r="E60" s="239"/>
       <c r="F60" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="208" t="s">
+      <c r="A61" s="231" t="s">
         <v>224</v>
       </c>
-      <c r="B61" s="208" t="s">
+      <c r="B61" s="231" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="209" t="s">
+      <c r="C61" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="223" t="s">
+      <c r="D61" s="246" t="s">
         <v>225</v>
       </c>
-      <c r="E61" s="223"/>
-      <c r="F61" s="209">
+      <c r="E61" s="246"/>
+      <c r="F61" s="232">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="208"/>
-      <c r="B62" s="208"/>
-      <c r="C62" s="209"/>
+      <c r="A62" s="231"/>
+      <c r="B62" s="231"/>
+      <c r="C62" s="232"/>
       <c r="D62" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="209"/>
+      <c r="F62" s="232"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="208"/>
-      <c r="B63" s="208"/>
-      <c r="C63" s="209"/>
+      <c r="A63" s="231"/>
+      <c r="B63" s="231"/>
+      <c r="C63" s="232"/>
       <c r="D63" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="F63" s="209"/>
+      <c r="F63" s="232"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
@@ -7928,10 +8429,10 @@
       <c r="C64" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="216" t="s">
+      <c r="D64" s="239" t="s">
         <v>229</v>
       </c>
-      <c r="E64" s="216"/>
+      <c r="E64" s="239"/>
       <c r="F64" s="22">
         <v>0</v>
       </c>
@@ -7946,211 +8447,211 @@
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="216" t="s">
+      <c r="D65" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="216"/>
+      <c r="E65" s="239"/>
       <c r="F65" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="208" t="s">
+      <c r="A66" s="231" t="s">
         <v>231</v>
       </c>
-      <c r="B66" s="208" t="s">
+      <c r="B66" s="231" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="208" t="s">
+      <c r="C66" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="216" t="s">
+      <c r="D66" s="239" t="s">
         <v>233</v>
       </c>
-      <c r="E66" s="216"/>
-      <c r="F66" s="209">
+      <c r="E66" s="239"/>
+      <c r="F66" s="232">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="105">
-      <c r="A67" s="208"/>
-      <c r="B67" s="208"/>
-      <c r="C67" s="208"/>
+      <c r="A67" s="231"/>
+      <c r="B67" s="231"/>
+      <c r="C67" s="231"/>
       <c r="D67" s="88" t="s">
         <v>17</v>
       </c>
       <c r="E67" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="F67" s="209"/>
+      <c r="F67" s="232"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="208"/>
-      <c r="B68" s="208"/>
-      <c r="C68" s="208"/>
+      <c r="A68" s="231"/>
+      <c r="B68" s="231"/>
+      <c r="C68" s="231"/>
       <c r="D68" s="88" t="s">
         <v>16</v>
       </c>
       <c r="E68" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="F68" s="209"/>
+      <c r="F68" s="232"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="208" t="s">
+      <c r="A69" s="231" t="s">
         <v>232</v>
       </c>
-      <c r="B69" s="208" t="s">
+      <c r="B69" s="231" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="208" t="s">
+      <c r="C69" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="217" t="s">
+      <c r="D69" s="240" t="s">
         <v>236</v>
       </c>
-      <c r="E69" s="217"/>
-      <c r="F69" s="209">
+      <c r="E69" s="240"/>
+      <c r="F69" s="232">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="60">
-      <c r="A70" s="208"/>
-      <c r="B70" s="208"/>
-      <c r="C70" s="208"/>
+      <c r="A70" s="231"/>
+      <c r="B70" s="231"/>
+      <c r="C70" s="231"/>
       <c r="D70" s="89" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="F70" s="209"/>
+      <c r="F70" s="232"/>
     </row>
     <row r="71" spans="1:6" ht="30">
-      <c r="A71" s="208"/>
-      <c r="B71" s="208"/>
-      <c r="C71" s="208"/>
+      <c r="A71" s="231"/>
+      <c r="B71" s="231"/>
+      <c r="C71" s="231"/>
       <c r="D71" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="F71" s="209"/>
+      <c r="F71" s="232"/>
     </row>
     <row r="72" spans="1:6" ht="33" customHeight="1">
-      <c r="A72" s="208"/>
-      <c r="B72" s="208"/>
-      <c r="C72" s="208"/>
-      <c r="D72" s="218" t="s">
+      <c r="A72" s="231"/>
+      <c r="B72" s="231"/>
+      <c r="C72" s="231"/>
+      <c r="D72" s="241" t="s">
         <v>239</v>
       </c>
-      <c r="E72" s="218"/>
-      <c r="F72" s="209"/>
+      <c r="E72" s="241"/>
+      <c r="F72" s="232"/>
     </row>
     <row r="73" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A73" s="208" t="s">
+      <c r="A73" s="231" t="s">
         <v>240</v>
       </c>
-      <c r="B73" s="208" t="s">
+      <c r="B73" s="231" t="s">
         <v>154</v>
       </c>
-      <c r="C73" s="208" t="s">
+      <c r="C73" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="210" t="s">
+      <c r="D73" s="233" t="s">
         <v>241</v>
       </c>
-      <c r="E73" s="210"/>
-      <c r="F73" s="209">
+      <c r="E73" s="233"/>
+      <c r="F73" s="232">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="208"/>
-      <c r="B74" s="208"/>
-      <c r="C74" s="208"/>
+      <c r="A74" s="231"/>
+      <c r="B74" s="231"/>
+      <c r="C74" s="231"/>
       <c r="D74" s="89" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="F74" s="209"/>
+      <c r="F74" s="232"/>
     </row>
     <row r="75" spans="1:6" ht="30">
-      <c r="A75" s="208"/>
-      <c r="B75" s="208"/>
-      <c r="C75" s="208"/>
+      <c r="A75" s="231"/>
+      <c r="B75" s="231"/>
+      <c r="C75" s="231"/>
       <c r="D75" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E75" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="F75" s="209"/>
+      <c r="F75" s="232"/>
     </row>
     <row r="76" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A76" s="208"/>
-      <c r="B76" s="208"/>
-      <c r="C76" s="208"/>
-      <c r="D76" s="211" t="s">
+      <c r="A76" s="231"/>
+      <c r="B76" s="231"/>
+      <c r="C76" s="231"/>
+      <c r="D76" s="234" t="s">
         <v>244</v>
       </c>
-      <c r="E76" s="211"/>
-      <c r="F76" s="209"/>
+      <c r="E76" s="234"/>
+      <c r="F76" s="232"/>
     </row>
     <row r="77" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A77" s="208" t="s">
+      <c r="A77" s="231" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="208" t="s">
+      <c r="B77" s="231" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="208" t="s">
+      <c r="C77" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="210" t="s">
+      <c r="D77" s="233" t="s">
         <v>246</v>
       </c>
-      <c r="E77" s="210"/>
-      <c r="F77" s="209">
+      <c r="E77" s="233"/>
+      <c r="F77" s="232">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="208"/>
-      <c r="B78" s="208"/>
-      <c r="C78" s="208"/>
+      <c r="A78" s="231"/>
+      <c r="B78" s="231"/>
+      <c r="C78" s="231"/>
       <c r="D78" s="89" t="s">
         <v>17</v>
       </c>
       <c r="E78" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="F78" s="209"/>
+      <c r="F78" s="232"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="208"/>
-      <c r="B79" s="208"/>
-      <c r="C79" s="208"/>
+      <c r="A79" s="231"/>
+      <c r="B79" s="231"/>
+      <c r="C79" s="231"/>
       <c r="D79" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E79" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="F79" s="209"/>
+      <c r="F79" s="232"/>
     </row>
     <row r="80" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A80" s="208"/>
-      <c r="B80" s="208"/>
-      <c r="C80" s="208"/>
-      <c r="D80" s="211" t="s">
+      <c r="A80" s="231"/>
+      <c r="B80" s="231"/>
+      <c r="C80" s="231"/>
+      <c r="D80" s="234" t="s">
         <v>249</v>
       </c>
-      <c r="E80" s="211"/>
-      <c r="F80" s="209"/>
+      <c r="E80" s="234"/>
+      <c r="F80" s="232"/>
     </row>
     <row r="81" spans="1:6" ht="29.25" customHeight="1">
       <c r="A81" s="2" t="s">
@@ -8162,10 +8663,10 @@
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="211" t="s">
+      <c r="D81" s="234" t="s">
         <v>252</v>
       </c>
-      <c r="E81" s="212"/>
+      <c r="E81" s="235"/>
       <c r="F81" s="22" t="s">
         <v>256</v>
       </c>
@@ -8180,10 +8681,10 @@
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="211" t="s">
+      <c r="D82" s="234" t="s">
         <v>255</v>
       </c>
-      <c r="E82" s="212"/>
+      <c r="E82" s="235"/>
       <c r="F82" s="22">
         <v>10000</v>
       </c>
@@ -8198,117 +8699,117 @@
       <c r="C83" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="213" t="s">
+      <c r="D83" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="E83" s="214"/>
+      <c r="E83" s="237"/>
       <c r="F83" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="208" t="s">
+      <c r="A84" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="207" t="s">
+      <c r="B84" s="230" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="207" t="s">
+      <c r="C84" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="215" t="s">
+      <c r="D84" s="238" t="s">
         <v>257</v>
       </c>
-      <c r="E84" s="215"/>
-      <c r="F84" s="209">
+      <c r="E84" s="238"/>
+      <c r="F84" s="232">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="208"/>
-      <c r="B85" s="208"/>
-      <c r="C85" s="208"/>
+      <c r="A85" s="231"/>
+      <c r="B85" s="231"/>
+      <c r="C85" s="231"/>
       <c r="D85" s="88" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="F85" s="209"/>
+      <c r="F85" s="232"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="208"/>
-      <c r="B86" s="208"/>
-      <c r="C86" s="208"/>
+      <c r="A86" s="231"/>
+      <c r="B86" s="231"/>
+      <c r="C86" s="231"/>
       <c r="D86" s="88" t="s">
         <v>16</v>
       </c>
       <c r="E86" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="F86" s="209"/>
+      <c r="F86" s="232"/>
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1">
-      <c r="A87" s="208"/>
-      <c r="B87" s="208"/>
-      <c r="C87" s="208"/>
-      <c r="D87" s="211" t="s">
+      <c r="A87" s="231"/>
+      <c r="B87" s="231"/>
+      <c r="C87" s="231"/>
+      <c r="D87" s="234" t="s">
         <v>260</v>
       </c>
-      <c r="E87" s="211"/>
-      <c r="F87" s="209"/>
+      <c r="E87" s="234"/>
+      <c r="F87" s="232"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="208" t="s">
+      <c r="A88" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="208" t="s">
+      <c r="B88" s="231" t="s">
         <v>159</v>
       </c>
-      <c r="C88" s="208" t="s">
+      <c r="C88" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="210" t="s">
+      <c r="D88" s="233" t="s">
         <v>246</v>
       </c>
-      <c r="E88" s="210"/>
-      <c r="F88" s="209">
+      <c r="E88" s="233"/>
+      <c r="F88" s="232">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="208"/>
-      <c r="B89" s="208"/>
-      <c r="C89" s="208"/>
+      <c r="A89" s="231"/>
+      <c r="B89" s="231"/>
+      <c r="C89" s="231"/>
       <c r="D89" s="89" t="s">
         <v>17</v>
       </c>
       <c r="E89" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="F89" s="209"/>
+      <c r="F89" s="232"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="208"/>
-      <c r="B90" s="208"/>
-      <c r="C90" s="208"/>
+      <c r="A90" s="231"/>
+      <c r="B90" s="231"/>
+      <c r="C90" s="231"/>
       <c r="D90" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E90" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="F90" s="209"/>
+      <c r="F90" s="232"/>
     </row>
     <row r="91" spans="1:6" ht="33" customHeight="1">
-      <c r="A91" s="208"/>
-      <c r="B91" s="208"/>
-      <c r="C91" s="208"/>
-      <c r="D91" s="211" t="s">
+      <c r="A91" s="231"/>
+      <c r="B91" s="231"/>
+      <c r="C91" s="231"/>
+      <c r="D91" s="234" t="s">
         <v>249</v>
       </c>
-      <c r="E91" s="211"/>
-      <c r="F91" s="209"/>
+      <c r="E91" s="234"/>
+      <c r="F91" s="232"/>
     </row>
     <row r="92" spans="1:6">
       <c r="D92" s="21"/>
@@ -9018,7 +9519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80682EB-C6EB-4106-8850-7C076662C407}">
   <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A295" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E337" sqref="E337"/>
     </sheetView>
   </sheetViews>
@@ -9049,10 +9550,10 @@
       <c r="C2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="242" t="s">
+      <c r="D2" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="242"/>
+      <c r="E2" s="265"/>
       <c r="F2" s="35" t="s">
         <v>100</v>
       </c>
@@ -9067,150 +9568,150 @@
       <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="237" t="s">
+      <c r="D3" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="237"/>
+      <c r="E3" s="260"/>
       <c r="F3" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="19" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="194" t="s">
+      <c r="C4" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="243" t="s">
+      <c r="D4" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="244"/>
-      <c r="F4" s="183">
+      <c r="E4" s="267"/>
+      <c r="F4" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="19" customFormat="1">
-      <c r="A5" s="199"/>
-      <c r="B5" s="200"/>
-      <c r="C5" s="194"/>
+      <c r="A5" s="222"/>
+      <c r="B5" s="223"/>
+      <c r="C5" s="217"/>
       <c r="D5" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="183"/>
+      <c r="F5" s="206"/>
     </row>
     <row r="6" spans="1:6" s="19" customFormat="1">
-      <c r="A6" s="199"/>
-      <c r="B6" s="200"/>
-      <c r="C6" s="194"/>
+      <c r="A6" s="222"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="217"/>
       <c r="D6" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="183"/>
+      <c r="F6" s="206"/>
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="194"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="217"/>
       <c r="D7" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="183"/>
+      <c r="F7" s="206"/>
     </row>
     <row r="8" spans="1:6" s="19" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="194"/>
+      <c r="A8" s="222"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="217"/>
       <c r="D8" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="183"/>
+      <c r="F8" s="206"/>
     </row>
     <row r="9" spans="1:6" s="19" customFormat="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="194"/>
+      <c r="A9" s="222"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="217"/>
       <c r="D9" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="183"/>
+      <c r="F9" s="206"/>
     </row>
     <row r="10" spans="1:6" s="19" customFormat="1">
-      <c r="A10" s="199"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="194"/>
+      <c r="A10" s="222"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="217"/>
       <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="183"/>
+      <c r="F10" s="206"/>
     </row>
     <row r="11" spans="1:6" s="19" customFormat="1">
-      <c r="A11" s="199"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="194"/>
+      <c r="A11" s="222"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="217"/>
       <c r="D11" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="183"/>
+      <c r="F11" s="206"/>
     </row>
     <row r="12" spans="1:6" s="19" customFormat="1">
-      <c r="A12" s="199"/>
-      <c r="B12" s="200"/>
-      <c r="C12" s="194"/>
+      <c r="A12" s="222"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="29" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="183"/>
+      <c r="F12" s="206"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="199" t="s">
+      <c r="A13" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="200" t="s">
+      <c r="B13" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="194" t="s">
+      <c r="C13" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="243" t="s">
+      <c r="D13" s="266" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="244"/>
+      <c r="E13" s="267"/>
       <c r="F13" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="199"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="194"/>
+      <c r="A14" s="222"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="217"/>
       <c r="D14" s="29" t="s">
         <v>17</v>
       </c>
@@ -9220,9 +9721,9 @@
       <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="199"/>
-      <c r="B15" s="200"/>
-      <c r="C15" s="194"/>
+      <c r="A15" s="222"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="217"/>
       <c r="D15" s="30" t="s">
         <v>16</v>
       </c>
@@ -9241,36 +9742,36 @@
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="238" t="s">
+      <c r="D16" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="238"/>
+      <c r="E16" s="261"/>
       <c r="F16" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="199" t="s">
+      <c r="A17" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="194" t="s">
+      <c r="C17" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="240" t="s">
+      <c r="D17" s="263" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="241"/>
+      <c r="E17" s="264"/>
       <c r="F17" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="199"/>
-      <c r="B18" s="200"/>
-      <c r="C18" s="194"/>
+      <c r="A18" s="222"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="217"/>
       <c r="D18" s="29" t="s">
         <v>17</v>
       </c>
@@ -9280,9 +9781,9 @@
       <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="199"/>
-      <c r="B19" s="200"/>
-      <c r="C19" s="194"/>
+      <c r="A19" s="222"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="217"/>
       <c r="D19" s="30" t="s">
         <v>16</v>
       </c>
@@ -9301,10 +9802,10 @@
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="236" t="s">
+      <c r="D20" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="236"/>
+      <c r="E20" s="259"/>
       <c r="F20" s="50">
         <v>0</v>
       </c>
@@ -9324,10 +9825,10 @@
       <c r="C23" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="242" t="s">
+      <c r="D23" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="242"/>
+      <c r="E23" s="265"/>
       <c r="F23" s="35" t="s">
         <v>100</v>
       </c>
@@ -9342,97 +9843,97 @@
       <c r="C24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="237" t="s">
+      <c r="D24" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="237"/>
+      <c r="E24" s="260"/>
       <c r="F24" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="199" t="s">
+      <c r="A25" s="222" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="200" t="s">
+      <c r="B25" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="260" t="s">
+      <c r="D25" s="283" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="261"/>
-      <c r="F25" s="183">
+      <c r="E25" s="284"/>
+      <c r="F25" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="199"/>
-      <c r="B26" s="200"/>
-      <c r="C26" s="194"/>
+      <c r="A26" s="222"/>
+      <c r="B26" s="223"/>
+      <c r="C26" s="217"/>
       <c r="D26" s="91" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="F26" s="183"/>
+      <c r="F26" s="206"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="199"/>
-      <c r="B27" s="200"/>
-      <c r="C27" s="194"/>
+      <c r="A27" s="222"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="217"/>
       <c r="D27" s="91" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="183"/>
+      <c r="F27" s="206"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="199" t="s">
+      <c r="A28" s="222" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="200" t="s">
+      <c r="B28" s="223" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="194" t="s">
+      <c r="C28" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="260" t="s">
+      <c r="D28" s="283" t="s">
         <v>266</v>
       </c>
-      <c r="E28" s="261"/>
-      <c r="F28" s="228">
+      <c r="E28" s="284"/>
+      <c r="F28" s="251">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="199"/>
-      <c r="B29" s="200"/>
-      <c r="C29" s="194"/>
+      <c r="A29" s="222"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="217"/>
       <c r="D29" s="91" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="F29" s="229"/>
+      <c r="F29" s="252"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="199"/>
-      <c r="B30" s="200"/>
-      <c r="C30" s="194"/>
+      <c r="A30" s="222"/>
+      <c r="B30" s="223"/>
+      <c r="C30" s="217"/>
       <c r="D30" s="92" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="F30" s="230"/>
+      <c r="F30" s="253"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11" t="s">
@@ -9444,211 +9945,211 @@
       <c r="C31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="238" t="s">
+      <c r="D31" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="238"/>
+      <c r="E31" s="261"/>
       <c r="F31" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="199" t="s">
+      <c r="A32" s="222" t="s">
         <v>231</v>
       </c>
-      <c r="B32" s="200" t="s">
+      <c r="B32" s="223" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="194" t="s">
+      <c r="C32" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="253" t="s">
+      <c r="D32" s="276" t="s">
         <v>270</v>
       </c>
-      <c r="E32" s="254"/>
-      <c r="F32" s="264">
+      <c r="E32" s="277"/>
+      <c r="F32" s="287">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="120">
-      <c r="A33" s="199"/>
-      <c r="B33" s="200"/>
-      <c r="C33" s="194"/>
+      <c r="A33" s="222"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="217"/>
       <c r="D33" s="95" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="F33" s="265"/>
+      <c r="F33" s="288"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="199"/>
-      <c r="B34" s="200"/>
-      <c r="C34" s="194"/>
+      <c r="A34" s="222"/>
+      <c r="B34" s="223"/>
+      <c r="C34" s="217"/>
       <c r="D34" s="96" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="F34" s="266"/>
+      <c r="F34" s="289"/>
     </row>
     <row r="35" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A35" s="199" t="s">
+      <c r="A35" s="222" t="s">
         <v>232</v>
       </c>
-      <c r="B35" s="200" t="s">
+      <c r="B35" s="223" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="194" t="s">
+      <c r="C35" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="255" t="s">
+      <c r="D35" s="278" t="s">
         <v>272</v>
       </c>
-      <c r="E35" s="256"/>
-      <c r="F35" s="228">
+      <c r="E35" s="279"/>
+      <c r="F35" s="251">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="199"/>
-      <c r="B36" s="200"/>
-      <c r="C36" s="194"/>
+      <c r="A36" s="222"/>
+      <c r="B36" s="223"/>
+      <c r="C36" s="217"/>
       <c r="D36" s="95" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="F36" s="229"/>
+      <c r="F36" s="252"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="199"/>
-      <c r="B37" s="200"/>
-      <c r="C37" s="194"/>
+      <c r="A37" s="222"/>
+      <c r="B37" s="223"/>
+      <c r="C37" s="217"/>
       <c r="D37" s="95" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="F37" s="229"/>
+      <c r="F37" s="252"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="199"/>
-      <c r="B38" s="200"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="267" t="s">
+      <c r="A38" s="222"/>
+      <c r="B38" s="223"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="290" t="s">
         <v>275</v>
       </c>
-      <c r="E38" s="268"/>
-      <c r="F38" s="230"/>
+      <c r="E38" s="291"/>
+      <c r="F38" s="253"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1">
-      <c r="A39" s="199" t="s">
+      <c r="A39" s="222" t="s">
         <v>240</v>
       </c>
-      <c r="B39" s="200" t="s">
+      <c r="B39" s="223" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="194" t="s">
+      <c r="C39" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="255" t="s">
+      <c r="D39" s="278" t="s">
         <v>277</v>
       </c>
-      <c r="E39" s="256"/>
-      <c r="F39" s="228">
+      <c r="E39" s="279"/>
+      <c r="F39" s="251">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="199"/>
-      <c r="B40" s="200"/>
-      <c r="C40" s="194"/>
+      <c r="A40" s="222"/>
+      <c r="B40" s="223"/>
+      <c r="C40" s="217"/>
       <c r="D40" s="95" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="94" t="s">
         <v>278</v>
       </c>
-      <c r="F40" s="229"/>
+      <c r="F40" s="252"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="199"/>
-      <c r="B41" s="200"/>
-      <c r="C41" s="194"/>
+      <c r="A41" s="222"/>
+      <c r="B41" s="223"/>
+      <c r="C41" s="217"/>
       <c r="D41" s="95" t="s">
         <v>16</v>
       </c>
       <c r="E41" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F41" s="229"/>
+      <c r="F41" s="252"/>
     </row>
     <row r="42" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A42" s="199"/>
-      <c r="B42" s="200"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="262" t="s">
+      <c r="A42" s="222"/>
+      <c r="B42" s="223"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="285" t="s">
         <v>280</v>
       </c>
-      <c r="E42" s="263"/>
-      <c r="F42" s="230"/>
+      <c r="E42" s="286"/>
+      <c r="F42" s="253"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="199" t="s">
+      <c r="A43" s="222" t="s">
         <v>245</v>
       </c>
-      <c r="B43" s="200" t="s">
+      <c r="B43" s="223" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="194" t="s">
+      <c r="C43" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="255" t="s">
+      <c r="D43" s="278" t="s">
         <v>281</v>
       </c>
-      <c r="E43" s="256"/>
-      <c r="F43" s="228">
+      <c r="E43" s="279"/>
+      <c r="F43" s="251">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="199"/>
-      <c r="B44" s="200"/>
-      <c r="C44" s="194"/>
+      <c r="A44" s="222"/>
+      <c r="B44" s="223"/>
+      <c r="C44" s="217"/>
       <c r="D44" s="95" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="F44" s="229"/>
+      <c r="F44" s="252"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="199"/>
-      <c r="B45" s="200"/>
-      <c r="C45" s="194"/>
+      <c r="A45" s="222"/>
+      <c r="B45" s="223"/>
+      <c r="C45" s="217"/>
       <c r="D45" s="95" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="F45" s="229"/>
+      <c r="F45" s="252"/>
     </row>
     <row r="46" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A46" s="199"/>
-      <c r="B46" s="200"/>
-      <c r="C46" s="194"/>
-      <c r="D46" s="262" t="s">
+      <c r="A46" s="222"/>
+      <c r="B46" s="223"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="285" t="s">
         <v>282</v>
       </c>
-      <c r="E46" s="263"/>
-      <c r="F46" s="230"/>
+      <c r="E46" s="286"/>
+      <c r="F46" s="253"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="36" t="s">
@@ -9660,10 +10161,10 @@
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="262" t="s">
+      <c r="D47" s="285" t="s">
         <v>285</v>
       </c>
-      <c r="E47" s="263"/>
+      <c r="E47" s="286"/>
       <c r="F47" s="48" t="s">
         <v>256</v>
       </c>
@@ -9678,10 +10179,10 @@
       <c r="C48" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="262" t="s">
+      <c r="D48" s="285" t="s">
         <v>286</v>
       </c>
-      <c r="E48" s="263"/>
+      <c r="E48" s="286"/>
       <c r="F48" s="48">
         <v>10000</v>
       </c>
@@ -9696,117 +10197,117 @@
       <c r="C49" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="238" t="s">
+      <c r="D49" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="238"/>
+      <c r="E49" s="261"/>
       <c r="F49" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="199" t="s">
+      <c r="A50" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="200" t="s">
+      <c r="B50" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="194" t="s">
+      <c r="C50" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="255" t="s">
+      <c r="D50" s="278" t="s">
         <v>287</v>
       </c>
-      <c r="E50" s="256"/>
-      <c r="F50" s="228">
+      <c r="E50" s="279"/>
+      <c r="F50" s="251">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="199"/>
-      <c r="B51" s="200"/>
-      <c r="C51" s="194"/>
+      <c r="A51" s="222"/>
+      <c r="B51" s="223"/>
+      <c r="C51" s="217"/>
       <c r="D51" s="95" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="F51" s="229"/>
+      <c r="F51" s="252"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="199"/>
-      <c r="B52" s="200"/>
-      <c r="C52" s="194"/>
+      <c r="A52" s="222"/>
+      <c r="B52" s="223"/>
+      <c r="C52" s="217"/>
       <c r="D52" s="95" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="F52" s="229"/>
+      <c r="F52" s="252"/>
     </row>
     <row r="53" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A53" s="199"/>
-      <c r="B53" s="200"/>
-      <c r="C53" s="194"/>
-      <c r="D53" s="262" t="s">
+      <c r="A53" s="222"/>
+      <c r="B53" s="223"/>
+      <c r="C53" s="217"/>
+      <c r="D53" s="285" t="s">
         <v>280</v>
       </c>
-      <c r="E53" s="263"/>
-      <c r="F53" s="230"/>
+      <c r="E53" s="286"/>
+      <c r="F53" s="253"/>
     </row>
     <row r="54" spans="1:6" ht="33" customHeight="1">
-      <c r="A54" s="199" t="s">
+      <c r="A54" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="200" t="s">
+      <c r="B54" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="194" t="s">
+      <c r="C54" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="257" t="s">
+      <c r="D54" s="280" t="s">
         <v>290</v>
       </c>
-      <c r="E54" s="258"/>
-      <c r="F54" s="228">
+      <c r="E54" s="281"/>
+      <c r="F54" s="251">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="199"/>
-      <c r="B55" s="200"/>
-      <c r="C55" s="194"/>
+      <c r="A55" s="222"/>
+      <c r="B55" s="223"/>
+      <c r="C55" s="217"/>
       <c r="D55" s="95" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="F55" s="229"/>
+      <c r="F55" s="252"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="199"/>
-      <c r="B56" s="200"/>
-      <c r="C56" s="194"/>
+      <c r="A56" s="222"/>
+      <c r="B56" s="223"/>
+      <c r="C56" s="217"/>
       <c r="D56" s="95" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="F56" s="229"/>
+      <c r="F56" s="252"/>
     </row>
     <row r="57" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A57" s="221"/>
-      <c r="B57" s="202"/>
-      <c r="C57" s="205"/>
-      <c r="D57" s="270" t="s">
+      <c r="A57" s="244"/>
+      <c r="B57" s="225"/>
+      <c r="C57" s="228"/>
+      <c r="D57" s="293" t="s">
         <v>282</v>
       </c>
-      <c r="E57" s="271"/>
-      <c r="F57" s="269"/>
+      <c r="E57" s="294"/>
+      <c r="F57" s="292"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
       <c r="A59" s="97" t="s">
@@ -9823,10 +10324,10 @@
       <c r="C60" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="242" t="s">
+      <c r="D60" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="242"/>
+      <c r="E60" s="265"/>
       <c r="F60" s="35" t="s">
         <v>100</v>
       </c>
@@ -9841,91 +10342,91 @@
       <c r="C61" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="272" t="s">
+      <c r="D61" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="272"/>
+      <c r="E61" s="295"/>
       <c r="F61" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="199" t="s">
+      <c r="A62" s="222" t="s">
         <v>301</v>
       </c>
-      <c r="B62" s="200" t="s">
+      <c r="B62" s="223" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="194" t="s">
+      <c r="C62" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="253" t="s">
+      <c r="D62" s="276" t="s">
         <v>293</v>
       </c>
-      <c r="E62" s="254"/>
-      <c r="F62" s="183">
+      <c r="E62" s="277"/>
+      <c r="F62" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="199"/>
-      <c r="B63" s="200"/>
-      <c r="C63" s="194"/>
+      <c r="A63" s="222"/>
+      <c r="B63" s="223"/>
+      <c r="C63" s="217"/>
       <c r="D63" s="95" t="s">
         <v>294</v>
       </c>
       <c r="E63" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="F63" s="183"/>
+      <c r="F63" s="206"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="199"/>
-      <c r="B64" s="200"/>
-      <c r="C64" s="194"/>
+      <c r="A64" s="222"/>
+      <c r="B64" s="223"/>
+      <c r="C64" s="217"/>
       <c r="D64" s="95" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="F64" s="183"/>
+      <c r="F64" s="206"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="199"/>
-      <c r="B65" s="200"/>
-      <c r="C65" s="194"/>
+      <c r="A65" s="222"/>
+      <c r="B65" s="223"/>
+      <c r="C65" s="217"/>
       <c r="D65" s="95" t="s">
         <v>24</v>
       </c>
       <c r="E65" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="F65" s="183"/>
+      <c r="F65" s="206"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="199"/>
-      <c r="B66" s="200"/>
-      <c r="C66" s="194"/>
+      <c r="A66" s="222"/>
+      <c r="B66" s="223"/>
+      <c r="C66" s="217"/>
       <c r="D66" s="95" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="F66" s="183"/>
+      <c r="F66" s="206"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="199"/>
-      <c r="B67" s="200"/>
-      <c r="C67" s="194"/>
+      <c r="A67" s="222"/>
+      <c r="B67" s="223"/>
+      <c r="C67" s="217"/>
       <c r="D67" s="96" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="F67" s="183"/>
+      <c r="F67" s="206"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="11" t="s">
@@ -9937,323 +10438,323 @@
       <c r="C68" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="259" t="s">
+      <c r="D68" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="259"/>
+      <c r="E68" s="282"/>
       <c r="F68" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A69" s="199" t="s">
+      <c r="A69" s="222" t="s">
         <v>245</v>
       </c>
-      <c r="B69" s="200" t="s">
+      <c r="B69" s="223" t="s">
         <v>163</v>
       </c>
-      <c r="C69" s="200" t="s">
+      <c r="C69" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="210" t="s">
+      <c r="D69" s="233" t="s">
         <v>303</v>
       </c>
-      <c r="E69" s="275"/>
-      <c r="F69" s="219">
+      <c r="E69" s="298"/>
+      <c r="F69" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="199"/>
-      <c r="B70" s="200"/>
-      <c r="C70" s="200"/>
+      <c r="A70" s="222"/>
+      <c r="B70" s="223"/>
+      <c r="C70" s="223"/>
       <c r="D70" s="93" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="94" t="s">
         <v>304</v>
       </c>
-      <c r="F70" s="219"/>
+      <c r="F70" s="242"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="199"/>
-      <c r="B71" s="200"/>
-      <c r="C71" s="200"/>
+      <c r="A71" s="222"/>
+      <c r="B71" s="223"/>
+      <c r="C71" s="223"/>
       <c r="D71" s="93" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="F71" s="219"/>
+      <c r="F71" s="242"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="199" t="s">
+      <c r="A72" s="222" t="s">
         <v>306</v>
       </c>
-      <c r="B72" s="196" t="s">
+      <c r="B72" s="219" t="s">
         <v>307</v>
       </c>
-      <c r="C72" s="200" t="s">
+      <c r="C72" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="234" t="s">
+      <c r="D72" s="257" t="s">
         <v>308</v>
       </c>
-      <c r="E72" s="235"/>
-      <c r="F72" s="219">
+      <c r="E72" s="258"/>
+      <c r="F72" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="199"/>
-      <c r="B73" s="196"/>
-      <c r="C73" s="200"/>
+      <c r="A73" s="222"/>
+      <c r="B73" s="219"/>
+      <c r="C73" s="223"/>
       <c r="D73" s="99" t="s">
         <v>309</v>
       </c>
       <c r="E73" s="100" t="s">
         <v>310</v>
       </c>
-      <c r="F73" s="219"/>
+      <c r="F73" s="242"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="199"/>
-      <c r="B74" s="196"/>
-      <c r="C74" s="200"/>
+      <c r="A74" s="222"/>
+      <c r="B74" s="219"/>
+      <c r="C74" s="223"/>
       <c r="D74" s="99" t="s">
         <v>322</v>
       </c>
       <c r="E74" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="F74" s="219"/>
+      <c r="F74" s="242"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="199"/>
-      <c r="B75" s="196"/>
-      <c r="C75" s="200"/>
+      <c r="A75" s="222"/>
+      <c r="B75" s="219"/>
+      <c r="C75" s="223"/>
       <c r="D75" s="99" t="s">
         <v>323</v>
       </c>
       <c r="E75" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="F75" s="219"/>
+      <c r="F75" s="242"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="199"/>
-      <c r="B76" s="196"/>
-      <c r="C76" s="200"/>
+      <c r="A76" s="222"/>
+      <c r="B76" s="219"/>
+      <c r="C76" s="223"/>
       <c r="D76" s="99" t="s">
         <v>324</v>
       </c>
       <c r="E76" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="F76" s="219"/>
+      <c r="F76" s="242"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="199"/>
-      <c r="B77" s="196"/>
-      <c r="C77" s="200"/>
+      <c r="A77" s="222"/>
+      <c r="B77" s="219"/>
+      <c r="C77" s="223"/>
       <c r="D77" s="99" t="s">
         <v>325</v>
       </c>
       <c r="E77" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="F77" s="219"/>
+      <c r="F77" s="242"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="199"/>
-      <c r="B78" s="196"/>
-      <c r="C78" s="200"/>
+      <c r="A78" s="222"/>
+      <c r="B78" s="219"/>
+      <c r="C78" s="223"/>
       <c r="D78" s="99" t="s">
         <v>326</v>
       </c>
       <c r="E78" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="F78" s="219"/>
+      <c r="F78" s="242"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="199"/>
-      <c r="B79" s="196"/>
-      <c r="C79" s="200"/>
+      <c r="A79" s="222"/>
+      <c r="B79" s="219"/>
+      <c r="C79" s="223"/>
       <c r="D79" s="99" t="s">
         <v>327</v>
       </c>
       <c r="E79" s="100" t="s">
         <v>315</v>
       </c>
-      <c r="F79" s="219"/>
+      <c r="F79" s="242"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="199"/>
-      <c r="B80" s="196"/>
-      <c r="C80" s="200"/>
+      <c r="A80" s="222"/>
+      <c r="B80" s="219"/>
+      <c r="C80" s="223"/>
       <c r="D80" s="99" t="s">
         <v>328</v>
       </c>
       <c r="E80" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="F80" s="219"/>
+      <c r="F80" s="242"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="199"/>
-      <c r="B81" s="196"/>
-      <c r="C81" s="200"/>
+      <c r="A81" s="222"/>
+      <c r="B81" s="219"/>
+      <c r="C81" s="223"/>
       <c r="D81" s="99" t="s">
         <v>329</v>
       </c>
       <c r="E81" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="F81" s="219"/>
+      <c r="F81" s="242"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="199"/>
-      <c r="B82" s="196"/>
-      <c r="C82" s="200"/>
+      <c r="A82" s="222"/>
+      <c r="B82" s="219"/>
+      <c r="C82" s="223"/>
       <c r="D82" s="99" t="s">
         <v>330</v>
       </c>
       <c r="E82" s="100" t="s">
         <v>315</v>
       </c>
-      <c r="F82" s="219"/>
+      <c r="F82" s="242"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="199"/>
-      <c r="B83" s="196"/>
-      <c r="C83" s="200"/>
+      <c r="A83" s="222"/>
+      <c r="B83" s="219"/>
+      <c r="C83" s="223"/>
       <c r="D83" s="99" t="s">
         <v>331</v>
       </c>
       <c r="E83" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="F83" s="219"/>
+      <c r="F83" s="242"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="199"/>
-      <c r="B84" s="196"/>
-      <c r="C84" s="200"/>
+      <c r="A84" s="222"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="223"/>
       <c r="D84" s="99" t="s">
         <v>332</v>
       </c>
       <c r="E84" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="F84" s="219"/>
+      <c r="F84" s="242"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="199"/>
-      <c r="B85" s="196"/>
-      <c r="C85" s="200"/>
+      <c r="A85" s="222"/>
+      <c r="B85" s="219"/>
+      <c r="C85" s="223"/>
       <c r="D85" s="99" t="s">
         <v>333</v>
       </c>
       <c r="E85" s="100" t="s">
         <v>314</v>
       </c>
-      <c r="F85" s="219"/>
+      <c r="F85" s="242"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="199"/>
-      <c r="B86" s="196"/>
-      <c r="C86" s="200"/>
+      <c r="A86" s="222"/>
+      <c r="B86" s="219"/>
+      <c r="C86" s="223"/>
       <c r="D86" s="99" t="s">
         <v>334</v>
       </c>
       <c r="E86" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="F86" s="219"/>
+      <c r="F86" s="242"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="199"/>
-      <c r="B87" s="196"/>
-      <c r="C87" s="200"/>
+      <c r="A87" s="222"/>
+      <c r="B87" s="219"/>
+      <c r="C87" s="223"/>
       <c r="D87" s="99" t="s">
         <v>335</v>
       </c>
       <c r="E87" s="100" t="s">
         <v>318</v>
       </c>
-      <c r="F87" s="219"/>
+      <c r="F87" s="242"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="199"/>
-      <c r="B88" s="196"/>
-      <c r="C88" s="200"/>
+      <c r="A88" s="222"/>
+      <c r="B88" s="219"/>
+      <c r="C88" s="223"/>
       <c r="D88" s="99" t="s">
         <v>336</v>
       </c>
       <c r="E88" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="F88" s="219"/>
+      <c r="F88" s="242"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="199"/>
-      <c r="B89" s="196"/>
-      <c r="C89" s="200"/>
+      <c r="A89" s="222"/>
+      <c r="B89" s="219"/>
+      <c r="C89" s="223"/>
       <c r="D89" s="99" t="s">
         <v>337</v>
       </c>
       <c r="E89" s="100" t="s">
         <v>315</v>
       </c>
-      <c r="F89" s="219"/>
+      <c r="F89" s="242"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="199"/>
-      <c r="B90" s="196"/>
-      <c r="C90" s="200"/>
+      <c r="A90" s="222"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="223"/>
       <c r="D90" s="99" t="s">
         <v>338</v>
       </c>
       <c r="E90" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="F90" s="219"/>
+      <c r="F90" s="242"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="199"/>
-      <c r="B91" s="196"/>
-      <c r="C91" s="200"/>
+      <c r="A91" s="222"/>
+      <c r="B91" s="219"/>
+      <c r="C91" s="223"/>
       <c r="D91" s="99" t="s">
         <v>339</v>
       </c>
       <c r="E91" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="F91" s="219"/>
+      <c r="F91" s="242"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="199"/>
-      <c r="B92" s="196"/>
-      <c r="C92" s="200"/>
+      <c r="A92" s="222"/>
+      <c r="B92" s="219"/>
+      <c r="C92" s="223"/>
       <c r="D92" s="99" t="s">
         <v>340</v>
       </c>
       <c r="E92" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="F92" s="219"/>
+      <c r="F92" s="242"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="199"/>
-      <c r="B93" s="196"/>
-      <c r="C93" s="200"/>
-      <c r="D93" s="248" t="s">
+      <c r="A93" s="222"/>
+      <c r="B93" s="219"/>
+      <c r="C93" s="223"/>
+      <c r="D93" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="E93" s="249"/>
-      <c r="F93" s="219"/>
+      <c r="E93" s="272"/>
+      <c r="F93" s="242"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="11" t="s">
@@ -10265,375 +10766,375 @@
       <c r="C94" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="273" t="s">
+      <c r="D94" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="E94" s="273"/>
+      <c r="E94" s="296"/>
       <c r="F94" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A95" s="199" t="s">
+      <c r="A95" s="222" t="s">
         <v>343</v>
       </c>
-      <c r="B95" s="200" t="s">
+      <c r="B95" s="223" t="s">
         <v>165</v>
       </c>
-      <c r="C95" s="194" t="s">
+      <c r="C95" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="260" t="s">
+      <c r="D95" s="283" t="s">
         <v>344</v>
       </c>
-      <c r="E95" s="261"/>
-      <c r="F95" s="274" t="s">
+      <c r="E95" s="284"/>
+      <c r="F95" s="297" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="199"/>
-      <c r="B96" s="200"/>
-      <c r="C96" s="194"/>
+      <c r="A96" s="222"/>
+      <c r="B96" s="223"/>
+      <c r="C96" s="217"/>
       <c r="D96" s="99" t="s">
         <v>65</v>
       </c>
       <c r="E96" s="100" t="s">
         <v>346</v>
       </c>
-      <c r="F96" s="274"/>
+      <c r="F96" s="297"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="199"/>
-      <c r="B97" s="200"/>
-      <c r="C97" s="194"/>
+      <c r="A97" s="222"/>
+      <c r="B97" s="223"/>
+      <c r="C97" s="217"/>
       <c r="D97" s="99" t="s">
         <v>66</v>
       </c>
       <c r="E97" s="100" t="s">
         <v>347</v>
       </c>
-      <c r="F97" s="274"/>
+      <c r="F97" s="297"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="199"/>
-      <c r="B98" s="200"/>
-      <c r="C98" s="194"/>
+      <c r="A98" s="222"/>
+      <c r="B98" s="223"/>
+      <c r="C98" s="217"/>
       <c r="D98" s="99" t="s">
         <v>67</v>
       </c>
       <c r="E98" s="100" t="s">
         <v>348</v>
       </c>
-      <c r="F98" s="274"/>
+      <c r="F98" s="297"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="199"/>
-      <c r="B99" s="200"/>
-      <c r="C99" s="194"/>
+      <c r="A99" s="222"/>
+      <c r="B99" s="223"/>
+      <c r="C99" s="217"/>
       <c r="D99" s="99" t="s">
         <v>68</v>
       </c>
       <c r="E99" s="100" t="s">
         <v>349</v>
       </c>
-      <c r="F99" s="274"/>
+      <c r="F99" s="297"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="199"/>
-      <c r="B100" s="200"/>
-      <c r="C100" s="194"/>
+      <c r="A100" s="222"/>
+      <c r="B100" s="223"/>
+      <c r="C100" s="217"/>
       <c r="D100" s="99" t="s">
         <v>69</v>
       </c>
       <c r="E100" s="100" t="s">
         <v>350</v>
       </c>
-      <c r="F100" s="274"/>
+      <c r="F100" s="297"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="199"/>
-      <c r="B101" s="200"/>
-      <c r="C101" s="194"/>
+      <c r="A101" s="222"/>
+      <c r="B101" s="223"/>
+      <c r="C101" s="217"/>
       <c r="D101" s="99" t="s">
         <v>70</v>
       </c>
       <c r="E101" s="100" t="s">
         <v>351</v>
       </c>
-      <c r="F101" s="274"/>
+      <c r="F101" s="297"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="199"/>
-      <c r="B102" s="200"/>
-      <c r="C102" s="194"/>
+      <c r="A102" s="222"/>
+      <c r="B102" s="223"/>
+      <c r="C102" s="217"/>
       <c r="D102" s="99" t="s">
         <v>71</v>
       </c>
       <c r="E102" s="100" t="s">
         <v>352</v>
       </c>
-      <c r="F102" s="274"/>
+      <c r="F102" s="297"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="199"/>
-      <c r="B103" s="200"/>
-      <c r="C103" s="194"/>
+      <c r="A103" s="222"/>
+      <c r="B103" s="223"/>
+      <c r="C103" s="217"/>
       <c r="D103" s="99" t="s">
         <v>72</v>
       </c>
       <c r="E103" s="100" t="s">
         <v>353</v>
       </c>
-      <c r="F103" s="274"/>
+      <c r="F103" s="297"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="199"/>
-      <c r="B104" s="200"/>
-      <c r="C104" s="194"/>
+      <c r="A104" s="222"/>
+      <c r="B104" s="223"/>
+      <c r="C104" s="217"/>
       <c r="D104" s="99" t="s">
         <v>73</v>
       </c>
       <c r="E104" s="100" t="s">
         <v>347</v>
       </c>
-      <c r="F104" s="274"/>
+      <c r="F104" s="297"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="199"/>
-      <c r="B105" s="200"/>
-      <c r="C105" s="194"/>
+      <c r="A105" s="222"/>
+      <c r="B105" s="223"/>
+      <c r="C105" s="217"/>
       <c r="D105" s="99" t="s">
         <v>94</v>
       </c>
       <c r="E105" s="100" t="s">
         <v>349</v>
       </c>
-      <c r="F105" s="274"/>
+      <c r="F105" s="297"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="199"/>
-      <c r="B106" s="200"/>
-      <c r="C106" s="194"/>
+      <c r="A106" s="222"/>
+      <c r="B106" s="223"/>
+      <c r="C106" s="217"/>
       <c r="D106" s="99" t="s">
         <v>74</v>
       </c>
       <c r="E106" s="100" t="s">
         <v>353</v>
       </c>
-      <c r="F106" s="274"/>
+      <c r="F106" s="297"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="199"/>
-      <c r="B107" s="200"/>
-      <c r="C107" s="194"/>
+      <c r="A107" s="222"/>
+      <c r="B107" s="223"/>
+      <c r="C107" s="217"/>
       <c r="D107" s="99" t="s">
         <v>75</v>
       </c>
       <c r="E107" s="100" t="s">
         <v>354</v>
       </c>
-      <c r="F107" s="274"/>
+      <c r="F107" s="297"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="199"/>
-      <c r="B108" s="200"/>
-      <c r="C108" s="194"/>
+      <c r="A108" s="222"/>
+      <c r="B108" s="223"/>
+      <c r="C108" s="217"/>
       <c r="D108" s="99" t="s">
         <v>76</v>
       </c>
       <c r="E108" s="100" t="s">
         <v>355</v>
       </c>
-      <c r="F108" s="274"/>
+      <c r="F108" s="297"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="199"/>
-      <c r="B109" s="200"/>
-      <c r="C109" s="194"/>
+      <c r="A109" s="222"/>
+      <c r="B109" s="223"/>
+      <c r="C109" s="217"/>
       <c r="D109" s="99" t="s">
         <v>77</v>
       </c>
       <c r="E109" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="F109" s="274"/>
+      <c r="F109" s="297"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="199"/>
-      <c r="B110" s="200"/>
-      <c r="C110" s="194"/>
+      <c r="A110" s="222"/>
+      <c r="B110" s="223"/>
+      <c r="C110" s="217"/>
       <c r="D110" s="99" t="s">
         <v>78</v>
       </c>
       <c r="E110" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="F110" s="274"/>
+      <c r="F110" s="297"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="199"/>
-      <c r="B111" s="200"/>
-      <c r="C111" s="194"/>
+      <c r="A111" s="222"/>
+      <c r="B111" s="223"/>
+      <c r="C111" s="217"/>
       <c r="D111" s="99" t="s">
         <v>79</v>
       </c>
       <c r="E111" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="F111" s="274"/>
+      <c r="F111" s="297"/>
     </row>
     <row r="112" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A112" s="199"/>
-      <c r="B112" s="200"/>
-      <c r="C112" s="194"/>
-      <c r="D112" s="248" t="s">
+      <c r="A112" s="222"/>
+      <c r="B112" s="223"/>
+      <c r="C112" s="217"/>
+      <c r="D112" s="271" t="s">
         <v>359</v>
       </c>
-      <c r="E112" s="249"/>
-      <c r="F112" s="274"/>
+      <c r="E112" s="272"/>
+      <c r="F112" s="297"/>
     </row>
     <row r="113" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A113" s="199" t="s">
+      <c r="A113" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="B113" s="200" t="s">
+      <c r="B113" s="223" t="s">
         <v>166</v>
       </c>
-      <c r="C113" s="200" t="s">
+      <c r="C113" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="223" t="s">
+      <c r="D113" s="246" t="s">
         <v>360</v>
       </c>
-      <c r="E113" s="223"/>
-      <c r="F113" s="219">
+      <c r="E113" s="246"/>
+      <c r="F113" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="199"/>
-      <c r="B114" s="200"/>
-      <c r="C114" s="200"/>
+      <c r="A114" s="222"/>
+      <c r="B114" s="223"/>
+      <c r="C114" s="223"/>
       <c r="D114" s="21" t="s">
         <v>361</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F114" s="219"/>
+      <c r="F114" s="242"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="199"/>
-      <c r="B115" s="200"/>
-      <c r="C115" s="200"/>
+      <c r="A115" s="222"/>
+      <c r="B115" s="223"/>
+      <c r="C115" s="223"/>
       <c r="D115" s="21" t="s">
         <v>362</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F115" s="219"/>
+      <c r="F115" s="242"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="199"/>
-      <c r="B116" s="200"/>
-      <c r="C116" s="200"/>
+      <c r="A116" s="222"/>
+      <c r="B116" s="223"/>
+      <c r="C116" s="223"/>
       <c r="D116" s="21" t="s">
         <v>363</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F116" s="219"/>
+      <c r="F116" s="242"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="199"/>
-      <c r="B117" s="200"/>
-      <c r="C117" s="200"/>
+      <c r="A117" s="222"/>
+      <c r="B117" s="223"/>
+      <c r="C117" s="223"/>
       <c r="D117" s="21" t="s">
         <v>364</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F117" s="219"/>
+      <c r="F117" s="242"/>
     </row>
     <row r="118" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A118" s="199" t="s">
+      <c r="A118" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="B118" s="200" t="s">
+      <c r="B118" s="223" t="s">
         <v>167</v>
       </c>
-      <c r="C118" s="200" t="s">
+      <c r="C118" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="234" t="s">
+      <c r="D118" s="257" t="s">
         <v>369</v>
       </c>
-      <c r="E118" s="235"/>
-      <c r="F118" s="183">
+      <c r="E118" s="258"/>
+      <c r="F118" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="199"/>
-      <c r="B119" s="200"/>
-      <c r="C119" s="200"/>
+      <c r="A119" s="222"/>
+      <c r="B119" s="223"/>
+      <c r="C119" s="223"/>
       <c r="D119" s="101" t="s">
         <v>361</v>
       </c>
       <c r="E119" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="F119" s="183"/>
+      <c r="F119" s="206"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="199"/>
-      <c r="B120" s="200"/>
-      <c r="C120" s="200"/>
+      <c r="A120" s="222"/>
+      <c r="B120" s="223"/>
+      <c r="C120" s="223"/>
       <c r="D120" s="101" t="s">
         <v>362</v>
       </c>
       <c r="E120" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="F120" s="183"/>
+      <c r="F120" s="206"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="199"/>
-      <c r="B121" s="200"/>
-      <c r="C121" s="200"/>
+      <c r="A121" s="222"/>
+      <c r="B121" s="223"/>
+      <c r="C121" s="223"/>
       <c r="D121" s="101" t="s">
         <v>363</v>
       </c>
       <c r="E121" s="100" t="s">
         <v>367</v>
       </c>
-      <c r="F121" s="183"/>
+      <c r="F121" s="206"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="199"/>
-      <c r="B122" s="200"/>
-      <c r="C122" s="200"/>
+      <c r="A122" s="222"/>
+      <c r="B122" s="223"/>
+      <c r="C122" s="223"/>
       <c r="D122" s="101" t="s">
         <v>364</v>
       </c>
       <c r="E122" s="100" t="s">
         <v>368</v>
       </c>
-      <c r="F122" s="183"/>
+      <c r="F122" s="206"/>
     </row>
     <row r="123" spans="1:6" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A123" s="221"/>
-      <c r="B123" s="202"/>
-      <c r="C123" s="202"/>
-      <c r="D123" s="278" t="s">
+      <c r="A123" s="244"/>
+      <c r="B123" s="225"/>
+      <c r="C123" s="225"/>
+      <c r="D123" s="301" t="s">
         <v>370</v>
       </c>
-      <c r="E123" s="279"/>
-      <c r="F123" s="204"/>
+      <c r="E123" s="302"/>
+      <c r="F123" s="227"/>
     </row>
     <row r="124" spans="1:6">
       <c r="D124" s="21"/>
@@ -10653,10 +11154,10 @@
       <c r="C126" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="242" t="s">
+      <c r="D126" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="E126" s="242"/>
+      <c r="E126" s="265"/>
       <c r="F126" s="35" t="s">
         <v>100</v>
       </c>
@@ -10671,55 +11172,55 @@
       <c r="C127" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="276" t="s">
+      <c r="D127" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="276"/>
+      <c r="E127" s="299"/>
       <c r="F127" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="199" t="s">
+      <c r="A128" s="222" t="s">
         <v>372</v>
       </c>
-      <c r="B128" s="200" t="s">
+      <c r="B128" s="223" t="s">
         <v>169</v>
       </c>
-      <c r="C128" s="194" t="s">
+      <c r="C128" s="217" t="s">
         <v>384</v>
       </c>
-      <c r="D128" s="260" t="s">
+      <c r="D128" s="283" t="s">
         <v>386</v>
       </c>
-      <c r="E128" s="261"/>
-      <c r="F128" s="183">
+      <c r="E128" s="284"/>
+      <c r="F128" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="199"/>
-      <c r="B129" s="200"/>
-      <c r="C129" s="194"/>
+      <c r="A129" s="222"/>
+      <c r="B129" s="223"/>
+      <c r="C129" s="217"/>
       <c r="D129" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E129" s="104" t="s">
         <v>387</v>
       </c>
-      <c r="F129" s="183"/>
+      <c r="F129" s="206"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="199"/>
-      <c r="B130" s="200"/>
-      <c r="C130" s="194"/>
+      <c r="A130" s="222"/>
+      <c r="B130" s="223"/>
+      <c r="C130" s="217"/>
       <c r="D130" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E130" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="F130" s="183"/>
+      <c r="F130" s="206"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="11" t="s">
@@ -10731,139 +11232,139 @@
       <c r="C131" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D131" s="277" t="s">
+      <c r="D131" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="E131" s="277"/>
+      <c r="E131" s="300"/>
       <c r="F131" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="199" t="s">
+      <c r="A132" s="222" t="s">
         <v>374</v>
       </c>
-      <c r="B132" s="200" t="s">
+      <c r="B132" s="223" t="s">
         <v>170</v>
       </c>
-      <c r="C132" s="194" t="s">
+      <c r="C132" s="217" t="s">
         <v>384</v>
       </c>
-      <c r="D132" s="260" t="s">
+      <c r="D132" s="283" t="s">
         <v>393</v>
       </c>
-      <c r="E132" s="261"/>
-      <c r="F132" s="183">
+      <c r="E132" s="284"/>
+      <c r="F132" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="199"/>
-      <c r="B133" s="200"/>
-      <c r="C133" s="194"/>
+      <c r="A133" s="222"/>
+      <c r="B133" s="223"/>
+      <c r="C133" s="217"/>
       <c r="D133" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E133" s="107" t="s">
         <v>392</v>
       </c>
-      <c r="F133" s="183"/>
+      <c r="F133" s="206"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="199"/>
-      <c r="B134" s="200"/>
-      <c r="C134" s="194"/>
+      <c r="A134" s="222"/>
+      <c r="B134" s="223"/>
+      <c r="C134" s="217"/>
       <c r="D134" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E134" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="F134" s="183"/>
+      <c r="F134" s="206"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="199" t="s">
+      <c r="A135" s="222" t="s">
         <v>231</v>
       </c>
-      <c r="B135" s="200" t="s">
+      <c r="B135" s="223" t="s">
         <v>171</v>
       </c>
-      <c r="C135" s="194" t="s">
+      <c r="C135" s="217" t="s">
         <v>384</v>
       </c>
-      <c r="D135" s="260" t="s">
+      <c r="D135" s="283" t="s">
         <v>394</v>
       </c>
-      <c r="E135" s="261"/>
-      <c r="F135" s="183">
+      <c r="E135" s="284"/>
+      <c r="F135" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="199"/>
-      <c r="B136" s="200"/>
-      <c r="C136" s="194"/>
+      <c r="A136" s="222"/>
+      <c r="B136" s="223"/>
+      <c r="C136" s="217"/>
       <c r="D136" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E136" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="F136" s="183"/>
+      <c r="F136" s="206"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="199"/>
-      <c r="B137" s="200"/>
-      <c r="C137" s="194"/>
+      <c r="A137" s="222"/>
+      <c r="B137" s="223"/>
+      <c r="C137" s="217"/>
       <c r="D137" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E137" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="F137" s="183"/>
+      <c r="F137" s="206"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="199" t="s">
+      <c r="A138" s="222" t="s">
         <v>232</v>
       </c>
-      <c r="B138" s="200" t="s">
+      <c r="B138" s="223" t="s">
         <v>172</v>
       </c>
-      <c r="C138" s="194" t="s">
+      <c r="C138" s="217" t="s">
         <v>384</v>
       </c>
-      <c r="D138" s="260" t="s">
+      <c r="D138" s="283" t="s">
         <v>395</v>
       </c>
-      <c r="E138" s="261"/>
-      <c r="F138" s="183">
+      <c r="E138" s="284"/>
+      <c r="F138" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="199"/>
-      <c r="B139" s="200"/>
-      <c r="C139" s="194"/>
+      <c r="A139" s="222"/>
+      <c r="B139" s="223"/>
+      <c r="C139" s="217"/>
       <c r="D139" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E139" s="107" t="s">
         <v>390</v>
       </c>
-      <c r="F139" s="183"/>
+      <c r="F139" s="206"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="199"/>
-      <c r="B140" s="200"/>
-      <c r="C140" s="194"/>
+      <c r="A140" s="222"/>
+      <c r="B140" s="223"/>
+      <c r="C140" s="217"/>
       <c r="D140" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E140" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="F140" s="183"/>
+      <c r="F140" s="206"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="11" t="s">
@@ -10875,55 +11376,55 @@
       <c r="C141" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D141" s="277" t="s">
+      <c r="D141" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="E141" s="277"/>
+      <c r="E141" s="300"/>
       <c r="F141" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="199" t="s">
+      <c r="A142" s="222" t="s">
         <v>245</v>
       </c>
-      <c r="B142" s="200" t="s">
+      <c r="B142" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="C142" s="194" t="s">
+      <c r="C142" s="217" t="s">
         <v>384</v>
       </c>
-      <c r="D142" s="260" t="s">
+      <c r="D142" s="283" t="s">
         <v>396</v>
       </c>
-      <c r="E142" s="261"/>
-      <c r="F142" s="183">
+      <c r="E142" s="284"/>
+      <c r="F142" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="199"/>
-      <c r="B143" s="200"/>
-      <c r="C143" s="194"/>
+      <c r="A143" s="222"/>
+      <c r="B143" s="223"/>
+      <c r="C143" s="217"/>
       <c r="D143" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E143" s="107" t="s">
         <v>391</v>
       </c>
-      <c r="F143" s="183"/>
+      <c r="F143" s="206"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="199"/>
-      <c r="B144" s="200"/>
-      <c r="C144" s="194"/>
+      <c r="A144" s="222"/>
+      <c r="B144" s="223"/>
+      <c r="C144" s="217"/>
       <c r="D144" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E144" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="F144" s="183"/>
+      <c r="F144" s="206"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="11" t="s">
@@ -10935,139 +11436,139 @@
       <c r="C145" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="277" t="s">
+      <c r="D145" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="E145" s="277"/>
+      <c r="E145" s="300"/>
       <c r="F145" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="199" t="s">
+      <c r="A146" s="222" t="s">
         <v>376</v>
       </c>
-      <c r="B146" s="200" t="s">
+      <c r="B146" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="C146" s="194" t="s">
+      <c r="C146" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D146" s="234" t="s">
+      <c r="D146" s="257" t="s">
         <v>397</v>
       </c>
-      <c r="E146" s="235"/>
-      <c r="F146" s="183">
+      <c r="E146" s="258"/>
+      <c r="F146" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="199"/>
-      <c r="B147" s="200"/>
-      <c r="C147" s="194"/>
+      <c r="A147" s="222"/>
+      <c r="B147" s="223"/>
+      <c r="C147" s="217"/>
       <c r="D147" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E147" s="107" t="s">
         <v>398</v>
       </c>
-      <c r="F147" s="183"/>
+      <c r="F147" s="206"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="199"/>
-      <c r="B148" s="200"/>
-      <c r="C148" s="194"/>
+      <c r="A148" s="222"/>
+      <c r="B148" s="223"/>
+      <c r="C148" s="217"/>
       <c r="D148" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E148" s="106" t="s">
         <v>399</v>
       </c>
-      <c r="F148" s="183"/>
+      <c r="F148" s="206"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="199" t="s">
+      <c r="A149" s="222" t="s">
         <v>377</v>
       </c>
-      <c r="B149" s="200" t="s">
+      <c r="B149" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="C149" s="194" t="s">
+      <c r="C149" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D149" s="234" t="s">
+      <c r="D149" s="257" t="s">
         <v>400</v>
       </c>
-      <c r="E149" s="235"/>
-      <c r="F149" s="183">
+      <c r="E149" s="258"/>
+      <c r="F149" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="199"/>
-      <c r="B150" s="200"/>
-      <c r="C150" s="194"/>
+      <c r="A150" s="222"/>
+      <c r="B150" s="223"/>
+      <c r="C150" s="217"/>
       <c r="D150" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E150" s="107" t="s">
         <v>398</v>
       </c>
-      <c r="F150" s="183"/>
+      <c r="F150" s="206"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="199"/>
-      <c r="B151" s="200"/>
-      <c r="C151" s="194"/>
+      <c r="A151" s="222"/>
+      <c r="B151" s="223"/>
+      <c r="C151" s="217"/>
       <c r="D151" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E151" s="106" t="s">
         <v>399</v>
       </c>
-      <c r="F151" s="183"/>
+      <c r="F151" s="206"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="199" t="s">
+      <c r="A152" s="222" t="s">
         <v>378</v>
       </c>
-      <c r="B152" s="200" t="s">
+      <c r="B152" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="C152" s="194" t="s">
+      <c r="C152" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D152" s="234" t="s">
+      <c r="D152" s="257" t="s">
         <v>401</v>
       </c>
-      <c r="E152" s="235"/>
-      <c r="F152" s="183">
+      <c r="E152" s="258"/>
+      <c r="F152" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="199"/>
-      <c r="B153" s="200"/>
-      <c r="C153" s="194"/>
+      <c r="A153" s="222"/>
+      <c r="B153" s="223"/>
+      <c r="C153" s="217"/>
       <c r="D153" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E153" s="107" t="s">
         <v>398</v>
       </c>
-      <c r="F153" s="183"/>
+      <c r="F153" s="206"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="199"/>
-      <c r="B154" s="200"/>
-      <c r="C154" s="194"/>
+      <c r="A154" s="222"/>
+      <c r="B154" s="223"/>
+      <c r="C154" s="217"/>
       <c r="D154" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E154" s="106" t="s">
         <v>399</v>
       </c>
-      <c r="F154" s="183"/>
+      <c r="F154" s="206"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="11" t="s">
@@ -11079,97 +11580,97 @@
       <c r="C155" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="277" t="s">
+      <c r="D155" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="E155" s="277"/>
+      <c r="E155" s="300"/>
       <c r="F155" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="199" t="s">
+      <c r="A156" s="222" t="s">
         <v>380</v>
       </c>
-      <c r="B156" s="200" t="s">
+      <c r="B156" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="C156" s="194" t="s">
+      <c r="C156" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="D156" s="234" t="s">
+      <c r="D156" s="257" t="s">
         <v>402</v>
       </c>
-      <c r="E156" s="235"/>
-      <c r="F156" s="183">
+      <c r="E156" s="258"/>
+      <c r="F156" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="199"/>
-      <c r="B157" s="200"/>
-      <c r="C157" s="194"/>
+      <c r="A157" s="222"/>
+      <c r="B157" s="223"/>
+      <c r="C157" s="217"/>
       <c r="D157" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E157" s="107" t="s">
         <v>398</v>
       </c>
-      <c r="F157" s="183"/>
+      <c r="F157" s="206"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="199"/>
-      <c r="B158" s="200"/>
-      <c r="C158" s="194"/>
+      <c r="A158" s="222"/>
+      <c r="B158" s="223"/>
+      <c r="C158" s="217"/>
       <c r="D158" s="105" t="s">
         <v>16</v>
       </c>
       <c r="E158" s="106" t="s">
         <v>399</v>
       </c>
-      <c r="F158" s="183"/>
+      <c r="F158" s="206"/>
     </row>
     <row r="159" spans="1:6" ht="30" customHeight="1">
-      <c r="A159" s="199" t="s">
+      <c r="A159" s="222" t="s">
         <v>381</v>
       </c>
-      <c r="B159" s="200" t="s">
+      <c r="B159" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="C159" s="194" t="s">
+      <c r="C159" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D159" s="234" t="s">
+      <c r="D159" s="257" t="s">
         <v>403</v>
       </c>
-      <c r="E159" s="235"/>
-      <c r="F159" s="183">
+      <c r="E159" s="258"/>
+      <c r="F159" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="30" customHeight="1">
-      <c r="A160" s="199"/>
-      <c r="B160" s="200"/>
-      <c r="C160" s="194"/>
+      <c r="A160" s="222"/>
+      <c r="B160" s="223"/>
+      <c r="C160" s="217"/>
       <c r="D160" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E160" s="108" t="s">
         <v>404</v>
       </c>
-      <c r="F160" s="183"/>
+      <c r="F160" s="206"/>
     </row>
     <row r="161" spans="1:6" ht="60">
-      <c r="A161" s="199"/>
-      <c r="B161" s="200"/>
-      <c r="C161" s="194"/>
+      <c r="A161" s="222"/>
+      <c r="B161" s="223"/>
+      <c r="C161" s="217"/>
       <c r="D161" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E161" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="F161" s="183"/>
+      <c r="F161" s="206"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="11" t="s">
@@ -11181,169 +11682,169 @@
       <c r="C162" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D162" s="247" t="s">
+      <c r="D162" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="E162" s="246"/>
+      <c r="E162" s="269"/>
       <c r="F162" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A163" s="199" t="s">
+      <c r="A163" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="B163" s="200" t="s">
+      <c r="B163" s="223" t="s">
         <v>179</v>
       </c>
-      <c r="C163" s="194" t="s">
+      <c r="C163" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D163" s="234" t="s">
+      <c r="D163" s="257" t="s">
         <v>406</v>
       </c>
-      <c r="E163" s="235"/>
-      <c r="F163" s="183">
+      <c r="E163" s="258"/>
+      <c r="F163" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="30">
-      <c r="A164" s="199"/>
-      <c r="B164" s="200"/>
-      <c r="C164" s="194"/>
+      <c r="A164" s="222"/>
+      <c r="B164" s="223"/>
+      <c r="C164" s="217"/>
       <c r="D164" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E164" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="F164" s="183"/>
+      <c r="F164" s="206"/>
     </row>
     <row r="165" spans="1:6" ht="30">
-      <c r="A165" s="199"/>
-      <c r="B165" s="200"/>
-      <c r="C165" s="194"/>
+      <c r="A165" s="222"/>
+      <c r="B165" s="223"/>
+      <c r="C165" s="217"/>
       <c r="D165" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E165" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="F165" s="183"/>
+      <c r="F165" s="206"/>
     </row>
     <row r="166" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A166" s="199"/>
-      <c r="B166" s="200"/>
-      <c r="C166" s="194"/>
-      <c r="D166" s="248" t="s">
+      <c r="A166" s="222"/>
+      <c r="B166" s="223"/>
+      <c r="C166" s="217"/>
+      <c r="D166" s="271" t="s">
         <v>409</v>
       </c>
-      <c r="E166" s="249"/>
-      <c r="F166" s="183"/>
+      <c r="E166" s="272"/>
+      <c r="F166" s="206"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="199" t="s">
+      <c r="A167" s="222" t="s">
         <v>383</v>
       </c>
-      <c r="B167" s="200" t="s">
+      <c r="B167" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="C167" s="194" t="s">
+      <c r="C167" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D167" s="234" t="s">
+      <c r="D167" s="257" t="s">
         <v>418</v>
       </c>
-      <c r="E167" s="235"/>
-      <c r="F167" s="183">
+      <c r="E167" s="258"/>
+      <c r="F167" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30">
-      <c r="A168" s="199"/>
-      <c r="B168" s="200"/>
-      <c r="C168" s="194"/>
+      <c r="A168" s="222"/>
+      <c r="B168" s="223"/>
+      <c r="C168" s="217"/>
       <c r="D168" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E168" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="F168" s="183"/>
+      <c r="F168" s="206"/>
     </row>
     <row r="169" spans="1:6" ht="30">
-      <c r="A169" s="199"/>
-      <c r="B169" s="200"/>
-      <c r="C169" s="194"/>
+      <c r="A169" s="222"/>
+      <c r="B169" s="223"/>
+      <c r="C169" s="217"/>
       <c r="D169" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E169" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="F169" s="183"/>
+      <c r="F169" s="206"/>
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1">
-      <c r="A170" s="199"/>
-      <c r="B170" s="200"/>
-      <c r="C170" s="194"/>
-      <c r="D170" s="248" t="s">
+      <c r="A170" s="222"/>
+      <c r="B170" s="223"/>
+      <c r="C170" s="217"/>
+      <c r="D170" s="271" t="s">
         <v>421</v>
       </c>
-      <c r="E170" s="249"/>
-      <c r="F170" s="183"/>
+      <c r="E170" s="272"/>
+      <c r="F170" s="206"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="199" t="s">
+      <c r="A171" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="B171" s="200" t="s">
+      <c r="B171" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="C171" s="194" t="s">
+      <c r="C171" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D171" s="234" t="s">
+      <c r="D171" s="257" t="s">
         <v>414</v>
       </c>
-      <c r="E171" s="235"/>
-      <c r="F171" s="183">
+      <c r="E171" s="258"/>
+      <c r="F171" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="30">
-      <c r="A172" s="199"/>
-      <c r="B172" s="200"/>
-      <c r="C172" s="194"/>
+      <c r="A172" s="222"/>
+      <c r="B172" s="223"/>
+      <c r="C172" s="217"/>
       <c r="D172" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E172" s="107" t="s">
         <v>415</v>
       </c>
-      <c r="F172" s="183"/>
+      <c r="F172" s="206"/>
     </row>
     <row r="173" spans="1:6" ht="30">
-      <c r="A173" s="199"/>
-      <c r="B173" s="200"/>
-      <c r="C173" s="194"/>
+      <c r="A173" s="222"/>
+      <c r="B173" s="223"/>
+      <c r="C173" s="217"/>
       <c r="D173" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E173" s="107" t="s">
         <v>416</v>
       </c>
-      <c r="F173" s="183"/>
+      <c r="F173" s="206"/>
     </row>
     <row r="174" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A174" s="199"/>
-      <c r="B174" s="200"/>
-      <c r="C174" s="194"/>
-      <c r="D174" s="248" t="s">
+      <c r="A174" s="222"/>
+      <c r="B174" s="223"/>
+      <c r="C174" s="217"/>
+      <c r="D174" s="271" t="s">
         <v>417</v>
       </c>
-      <c r="E174" s="249"/>
-      <c r="F174" s="183"/>
+      <c r="E174" s="272"/>
+      <c r="F174" s="206"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="11" t="s">
@@ -11355,65 +11856,65 @@
       <c r="C175" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D175" s="247" t="s">
+      <c r="D175" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="E175" s="246"/>
+      <c r="E175" s="269"/>
       <c r="F175" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="199" t="s">
+      <c r="A176" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="B176" s="200" t="s">
+      <c r="B176" s="223" t="s">
         <v>182</v>
       </c>
-      <c r="C176" s="194" t="s">
+      <c r="C176" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D176" s="234" t="s">
+      <c r="D176" s="257" t="s">
         <v>410</v>
       </c>
-      <c r="E176" s="235"/>
-      <c r="F176" s="183">
+      <c r="E176" s="258"/>
+      <c r="F176" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30">
-      <c r="A177" s="199"/>
-      <c r="B177" s="200"/>
-      <c r="C177" s="194"/>
+      <c r="A177" s="222"/>
+      <c r="B177" s="223"/>
+      <c r="C177" s="217"/>
       <c r="D177" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E177" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="F177" s="183"/>
+      <c r="F177" s="206"/>
     </row>
     <row r="178" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A178" s="199"/>
-      <c r="B178" s="200"/>
-      <c r="C178" s="194"/>
+      <c r="A178" s="222"/>
+      <c r="B178" s="223"/>
+      <c r="C178" s="217"/>
       <c r="D178" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E178" s="108" t="s">
         <v>412</v>
       </c>
-      <c r="F178" s="183"/>
+      <c r="F178" s="206"/>
     </row>
     <row r="179" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A179" s="221"/>
-      <c r="B179" s="202"/>
-      <c r="C179" s="205"/>
-      <c r="D179" s="248" t="s">
+      <c r="A179" s="244"/>
+      <c r="B179" s="225"/>
+      <c r="C179" s="228"/>
+      <c r="D179" s="271" t="s">
         <v>413</v>
       </c>
-      <c r="E179" s="249"/>
-      <c r="F179" s="204"/>
+      <c r="E179" s="272"/>
+      <c r="F179" s="227"/>
     </row>
     <row r="181" spans="1:6" ht="15.75" thickBot="1">
       <c r="A181" s="97" t="s">
@@ -11430,10 +11931,10 @@
       <c r="C182" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D182" s="242" t="s">
+      <c r="D182" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="E182" s="242"/>
+      <c r="E182" s="265"/>
       <c r="F182" s="35" t="s">
         <v>100</v>
       </c>
@@ -11448,55 +11949,55 @@
       <c r="C183" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D183" s="280" t="s">
+      <c r="D183" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="E183" s="280"/>
+      <c r="E183" s="303"/>
       <c r="F183" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="199" t="s">
+      <c r="A184" s="222" t="s">
         <v>423</v>
       </c>
-      <c r="B184" s="196" t="s">
+      <c r="B184" s="219" t="s">
         <v>427</v>
       </c>
-      <c r="C184" s="200" t="s">
+      <c r="C184" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="245" t="s">
+      <c r="D184" s="268" t="s">
         <v>424</v>
       </c>
-      <c r="E184" s="245"/>
-      <c r="F184" s="219">
+      <c r="E184" s="268"/>
+      <c r="F184" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="199"/>
-      <c r="B185" s="196"/>
-      <c r="C185" s="200"/>
+      <c r="A185" s="222"/>
+      <c r="B185" s="219"/>
+      <c r="C185" s="223"/>
       <c r="D185" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E185" s="100" t="s">
         <v>425</v>
       </c>
-      <c r="F185" s="219"/>
+      <c r="F185" s="242"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="199"/>
-      <c r="B186" s="196"/>
-      <c r="C186" s="200"/>
+      <c r="A186" s="222"/>
+      <c r="B186" s="219"/>
+      <c r="C186" s="223"/>
       <c r="D186" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E186" s="98" t="s">
         <v>426</v>
       </c>
-      <c r="F186" s="219"/>
+      <c r="F186" s="242"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="11" t="s">
@@ -11508,97 +12009,97 @@
       <c r="C187" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D187" s="247" t="s">
+      <c r="D187" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="E187" s="281"/>
+      <c r="E187" s="304"/>
       <c r="F187" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="199" t="s">
+      <c r="A188" s="222" t="s">
         <v>376</v>
       </c>
-      <c r="B188" s="200" t="s">
+      <c r="B188" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="200" t="s">
+      <c r="C188" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D188" s="245" t="s">
+      <c r="D188" s="268" t="s">
         <v>428</v>
       </c>
-      <c r="E188" s="245"/>
-      <c r="F188" s="219">
+      <c r="E188" s="268"/>
+      <c r="F188" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="199"/>
-      <c r="B189" s="200"/>
-      <c r="C189" s="200"/>
+      <c r="A189" s="222"/>
+      <c r="B189" s="223"/>
+      <c r="C189" s="223"/>
       <c r="D189" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E189" s="100" t="s">
         <v>425</v>
       </c>
-      <c r="F189" s="219"/>
+      <c r="F189" s="242"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="199"/>
-      <c r="B190" s="200"/>
-      <c r="C190" s="200"/>
+      <c r="A190" s="222"/>
+      <c r="B190" s="223"/>
+      <c r="C190" s="223"/>
       <c r="D190" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E190" s="98" t="s">
         <v>426</v>
       </c>
-      <c r="F190" s="219"/>
+      <c r="F190" s="242"/>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="199" t="s">
+      <c r="A191" s="222" t="s">
         <v>377</v>
       </c>
-      <c r="B191" s="200" t="s">
+      <c r="B191" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="C191" s="200" t="s">
+      <c r="C191" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D191" s="245" t="s">
+      <c r="D191" s="268" t="s">
         <v>429</v>
       </c>
-      <c r="E191" s="245"/>
-      <c r="F191" s="219">
+      <c r="E191" s="268"/>
+      <c r="F191" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="199"/>
-      <c r="B192" s="200"/>
-      <c r="C192" s="200"/>
+      <c r="A192" s="222"/>
+      <c r="B192" s="223"/>
+      <c r="C192" s="223"/>
       <c r="D192" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E192" s="100" t="s">
         <v>425</v>
       </c>
-      <c r="F192" s="219"/>
+      <c r="F192" s="242"/>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="199"/>
-      <c r="B193" s="200"/>
-      <c r="C193" s="200"/>
+      <c r="A193" s="222"/>
+      <c r="B193" s="223"/>
+      <c r="C193" s="223"/>
       <c r="D193" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E193" s="98" t="s">
         <v>426</v>
       </c>
-      <c r="F193" s="219"/>
+      <c r="F193" s="242"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="11" t="s">
@@ -11610,55 +12111,55 @@
       <c r="C194" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D194" s="247" t="s">
+      <c r="D194" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="E194" s="281"/>
+      <c r="E194" s="304"/>
       <c r="F194" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="199" t="s">
+      <c r="A195" s="222" t="s">
         <v>379</v>
       </c>
-      <c r="B195" s="200" t="s">
+      <c r="B195" s="223" t="s">
         <v>187</v>
       </c>
-      <c r="C195" s="200" t="s">
+      <c r="C195" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D195" s="277" t="s">
+      <c r="D195" s="300" t="s">
         <v>431</v>
       </c>
-      <c r="E195" s="252"/>
-      <c r="F195" s="219">
+      <c r="E195" s="275"/>
+      <c r="F195" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="199"/>
-      <c r="B196" s="200"/>
-      <c r="C196" s="200"/>
+      <c r="A196" s="222"/>
+      <c r="B196" s="223"/>
+      <c r="C196" s="223"/>
       <c r="D196" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F196" s="219"/>
+      <c r="F196" s="242"/>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="199"/>
-      <c r="B197" s="200"/>
-      <c r="C197" s="200"/>
+      <c r="A197" s="222"/>
+      <c r="B197" s="223"/>
+      <c r="C197" s="223"/>
       <c r="D197" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F197" s="219"/>
+      <c r="F197" s="242"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="11" t="s">
@@ -11670,97 +12171,97 @@
       <c r="C198" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D198" s="280" t="s">
+      <c r="D198" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="E198" s="280"/>
+      <c r="E198" s="303"/>
       <c r="F198" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1">
-      <c r="A199" s="282" t="s">
+      <c r="A199" s="305" t="s">
         <v>433</v>
       </c>
-      <c r="B199" s="237" t="s">
+      <c r="B199" s="260" t="s">
         <v>188</v>
       </c>
-      <c r="C199" s="200" t="s">
+      <c r="C199" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D199" s="277" t="s">
+      <c r="D199" s="300" t="s">
         <v>434</v>
       </c>
-      <c r="E199" s="252"/>
-      <c r="F199" s="219">
+      <c r="E199" s="275"/>
+      <c r="F199" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1">
-      <c r="A200" s="283"/>
-      <c r="B200" s="238"/>
-      <c r="C200" s="200"/>
+      <c r="A200" s="306"/>
+      <c r="B200" s="261"/>
+      <c r="C200" s="223"/>
       <c r="D200" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F200" s="219"/>
+      <c r="F200" s="242"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1">
-      <c r="A201" s="284"/>
-      <c r="B201" s="239"/>
-      <c r="C201" s="200"/>
+      <c r="A201" s="307"/>
+      <c r="B201" s="262"/>
+      <c r="C201" s="223"/>
       <c r="D201" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F201" s="219"/>
+      <c r="F201" s="242"/>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="282" t="s">
+      <c r="A202" s="305" t="s">
         <v>21</v>
       </c>
-      <c r="B202" s="237" t="s">
+      <c r="B202" s="260" t="s">
         <v>189</v>
       </c>
-      <c r="C202" s="200" t="s">
+      <c r="C202" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D202" s="245" t="s">
+      <c r="D202" s="268" t="s">
         <v>435</v>
       </c>
-      <c r="E202" s="245"/>
-      <c r="F202" s="219">
+      <c r="E202" s="268"/>
+      <c r="F202" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="283"/>
-      <c r="B203" s="238"/>
-      <c r="C203" s="200"/>
+      <c r="A203" s="306"/>
+      <c r="B203" s="261"/>
+      <c r="C203" s="223"/>
       <c r="D203" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E203" s="100" t="s">
         <v>425</v>
       </c>
-      <c r="F203" s="219"/>
+      <c r="F203" s="242"/>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="284"/>
-      <c r="B204" s="239"/>
-      <c r="C204" s="200"/>
+      <c r="A204" s="307"/>
+      <c r="B204" s="262"/>
+      <c r="C204" s="223"/>
       <c r="D204" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E204" s="98" t="s">
         <v>426</v>
       </c>
-      <c r="F204" s="219"/>
+      <c r="F204" s="242"/>
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1">
       <c r="A205" s="11" t="s">
@@ -11772,55 +12273,55 @@
       <c r="C205" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D205" s="247" t="s">
+      <c r="D205" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="E205" s="246"/>
+      <c r="E205" s="269"/>
       <c r="F205" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="282" t="s">
+      <c r="A206" s="305" t="s">
         <v>53</v>
       </c>
-      <c r="B206" s="237" t="s">
+      <c r="B206" s="260" t="s">
         <v>190</v>
       </c>
-      <c r="C206" s="200" t="s">
+      <c r="C206" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D206" s="277" t="s">
+      <c r="D206" s="300" t="s">
         <v>436</v>
       </c>
-      <c r="E206" s="252"/>
-      <c r="F206" s="219">
+      <c r="E206" s="275"/>
+      <c r="F206" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="283"/>
-      <c r="B207" s="238"/>
-      <c r="C207" s="200"/>
+      <c r="A207" s="306"/>
+      <c r="B207" s="261"/>
+      <c r="C207" s="223"/>
       <c r="D207" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F207" s="219"/>
+      <c r="F207" s="242"/>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="284"/>
-      <c r="B208" s="239"/>
-      <c r="C208" s="200"/>
+      <c r="A208" s="307"/>
+      <c r="B208" s="262"/>
+      <c r="C208" s="223"/>
       <c r="D208" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F208" s="219"/>
+      <c r="F208" s="242"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="11" t="s">
@@ -11832,55 +12333,55 @@
       <c r="C209" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D209" s="280" t="s">
+      <c r="D209" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="E209" s="280"/>
+      <c r="E209" s="303"/>
       <c r="F209" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A210" s="199" t="s">
+      <c r="A210" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="B210" s="200" t="s">
+      <c r="B210" s="223" t="s">
         <v>191</v>
       </c>
-      <c r="C210" s="200" t="s">
+      <c r="C210" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D210" s="245" t="s">
+      <c r="D210" s="268" t="s">
         <v>437</v>
       </c>
-      <c r="E210" s="245"/>
-      <c r="F210" s="219">
+      <c r="E210" s="268"/>
+      <c r="F210" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="199"/>
-      <c r="B211" s="200"/>
-      <c r="C211" s="200"/>
+      <c r="A211" s="222"/>
+      <c r="B211" s="223"/>
+      <c r="C211" s="223"/>
       <c r="D211" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E211" s="100" t="s">
         <v>425</v>
       </c>
-      <c r="F211" s="219"/>
+      <c r="F211" s="242"/>
     </row>
     <row r="212" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A212" s="221"/>
-      <c r="B212" s="202"/>
-      <c r="C212" s="202"/>
+      <c r="A212" s="244"/>
+      <c r="B212" s="225"/>
+      <c r="C212" s="225"/>
       <c r="D212" s="111" t="s">
         <v>16</v>
       </c>
       <c r="E212" s="112" t="s">
         <v>426</v>
       </c>
-      <c r="F212" s="220"/>
+      <c r="F212" s="243"/>
     </row>
     <row r="214" spans="1:6" ht="16.5" thickBot="1">
       <c r="A214" s="72" t="s">
@@ -11897,10 +12398,10 @@
       <c r="C215" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D215" s="242" t="s">
+      <c r="D215" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="E215" s="242"/>
+      <c r="E215" s="265"/>
       <c r="F215" s="35" t="s">
         <v>100</v>
       </c>
@@ -11915,55 +12416,55 @@
       <c r="C216" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D216" s="280" t="s">
+      <c r="D216" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="E216" s="280"/>
+      <c r="E216" s="303"/>
       <c r="F216" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A217" s="282" t="s">
+      <c r="A217" s="305" t="s">
         <v>439</v>
       </c>
-      <c r="B217" s="237" t="s">
+      <c r="B217" s="260" t="s">
         <v>193</v>
       </c>
-      <c r="C217" s="200" t="s">
+      <c r="C217" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D217" s="277" t="s">
+      <c r="D217" s="300" t="s">
         <v>445</v>
       </c>
-      <c r="E217" s="252"/>
-      <c r="F217" s="219">
+      <c r="E217" s="275"/>
+      <c r="F217" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="283"/>
-      <c r="B218" s="238"/>
-      <c r="C218" s="200"/>
+      <c r="A218" s="306"/>
+      <c r="B218" s="261"/>
+      <c r="C218" s="223"/>
       <c r="D218" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F218" s="219"/>
+      <c r="F218" s="242"/>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="284"/>
-      <c r="B219" s="239"/>
-      <c r="C219" s="200"/>
+      <c r="A219" s="307"/>
+      <c r="B219" s="262"/>
+      <c r="C219" s="223"/>
       <c r="D219" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F219" s="219"/>
+      <c r="F219" s="242"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="11" t="s">
@@ -11975,55 +12476,55 @@
       <c r="C220" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D220" s="280" t="s">
+      <c r="D220" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="E220" s="280"/>
+      <c r="E220" s="303"/>
       <c r="F220" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="282" t="s">
+      <c r="A221" s="305" t="s">
         <v>442</v>
       </c>
-      <c r="B221" s="237" t="s">
+      <c r="B221" s="260" t="s">
         <v>440</v>
       </c>
-      <c r="C221" s="200" t="s">
+      <c r="C221" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="277" t="s">
+      <c r="D221" s="300" t="s">
         <v>446</v>
       </c>
-      <c r="E221" s="252"/>
-      <c r="F221" s="219">
+      <c r="E221" s="275"/>
+      <c r="F221" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="283"/>
-      <c r="B222" s="238"/>
-      <c r="C222" s="200"/>
+      <c r="A222" s="306"/>
+      <c r="B222" s="261"/>
+      <c r="C222" s="223"/>
       <c r="D222" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F222" s="219"/>
+      <c r="F222" s="242"/>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="284"/>
-      <c r="B223" s="239"/>
-      <c r="C223" s="200"/>
+      <c r="A223" s="307"/>
+      <c r="B223" s="262"/>
+      <c r="C223" s="223"/>
       <c r="D223" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F223" s="219"/>
+      <c r="F223" s="242"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="11" t="s">
@@ -12035,55 +12536,55 @@
       <c r="C224" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D224" s="280" t="s">
+      <c r="D224" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="E224" s="280"/>
+      <c r="E224" s="303"/>
       <c r="F224" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="282" t="s">
+      <c r="A225" s="305" t="s">
         <v>377</v>
       </c>
-      <c r="B225" s="237" t="s">
+      <c r="B225" s="260" t="s">
         <v>194</v>
       </c>
-      <c r="C225" s="200" t="s">
+      <c r="C225" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D225" s="277" t="s">
+      <c r="D225" s="300" t="s">
         <v>447</v>
       </c>
-      <c r="E225" s="252"/>
-      <c r="F225" s="219">
+      <c r="E225" s="275"/>
+      <c r="F225" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="283"/>
-      <c r="B226" s="238"/>
-      <c r="C226" s="200"/>
+      <c r="A226" s="306"/>
+      <c r="B226" s="261"/>
+      <c r="C226" s="223"/>
       <c r="D226" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F226" s="219"/>
+      <c r="F226" s="242"/>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="284"/>
-      <c r="B227" s="239"/>
-      <c r="C227" s="200"/>
+      <c r="A227" s="307"/>
+      <c r="B227" s="262"/>
+      <c r="C227" s="223"/>
       <c r="D227" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F227" s="219"/>
+      <c r="F227" s="242"/>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="11" t="s">
@@ -12095,55 +12596,55 @@
       <c r="C228" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D228" s="280" t="s">
+      <c r="D228" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="E228" s="280"/>
+      <c r="E228" s="303"/>
       <c r="F228" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="282" t="s">
+      <c r="A229" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="B229" s="237" t="s">
+      <c r="B229" s="260" t="s">
         <v>195</v>
       </c>
-      <c r="C229" s="200" t="s">
+      <c r="C229" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D229" s="245" t="s">
+      <c r="D229" s="268" t="s">
         <v>448</v>
       </c>
-      <c r="E229" s="245"/>
-      <c r="F229" s="219">
+      <c r="E229" s="268"/>
+      <c r="F229" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="283"/>
-      <c r="B230" s="238"/>
-      <c r="C230" s="200"/>
+      <c r="A230" s="306"/>
+      <c r="B230" s="261"/>
+      <c r="C230" s="223"/>
       <c r="D230" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E230" s="100" t="s">
         <v>425</v>
       </c>
-      <c r="F230" s="219"/>
+      <c r="F230" s="242"/>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="284"/>
-      <c r="B231" s="239"/>
-      <c r="C231" s="200"/>
+      <c r="A231" s="307"/>
+      <c r="B231" s="262"/>
+      <c r="C231" s="223"/>
       <c r="D231" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E231" s="98" t="s">
         <v>426</v>
       </c>
-      <c r="F231" s="219"/>
+      <c r="F231" s="242"/>
     </row>
     <row r="233" spans="1:6" ht="16.5" thickBot="1">
       <c r="A233" s="72" t="s">
@@ -12160,10 +12661,10 @@
       <c r="C234" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D234" s="250" t="s">
+      <c r="D234" s="273" t="s">
         <v>35</v>
       </c>
-      <c r="E234" s="242"/>
+      <c r="E234" s="265"/>
       <c r="F234" s="35" t="s">
         <v>100</v>
       </c>
@@ -12178,55 +12679,55 @@
       <c r="C235" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D235" s="246" t="s">
+      <c r="D235" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E235" s="247"/>
+      <c r="E235" s="270"/>
       <c r="F235" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A236" s="199" t="s">
+      <c r="A236" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="B236" s="200" t="s">
+      <c r="B236" s="223" t="s">
         <v>197</v>
       </c>
-      <c r="C236" s="200" t="s">
+      <c r="C236" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D236" s="251" t="s">
+      <c r="D236" s="274" t="s">
         <v>449</v>
       </c>
-      <c r="E236" s="252"/>
-      <c r="F236" s="219">
+      <c r="E236" s="275"/>
+      <c r="F236" s="242">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="30">
-      <c r="A237" s="199"/>
-      <c r="B237" s="200"/>
-      <c r="C237" s="200"/>
+      <c r="A237" s="222"/>
+      <c r="B237" s="223"/>
+      <c r="C237" s="223"/>
       <c r="D237" s="113" t="s">
         <v>17</v>
       </c>
       <c r="E237" s="102" t="s">
         <v>450</v>
       </c>
-      <c r="F237" s="219"/>
+      <c r="F237" s="242"/>
     </row>
     <row r="238" spans="1:6" ht="30">
-      <c r="A238" s="199"/>
-      <c r="B238" s="200"/>
-      <c r="C238" s="200"/>
+      <c r="A238" s="222"/>
+      <c r="B238" s="223"/>
+      <c r="C238" s="223"/>
       <c r="D238" s="113" t="s">
         <v>16</v>
       </c>
       <c r="E238" s="102" t="s">
         <v>451</v>
       </c>
-      <c r="F238" s="219"/>
+      <c r="F238" s="242"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="11" t="s">
@@ -12238,55 +12739,55 @@
       <c r="C239" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D239" s="246" t="s">
+      <c r="D239" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E239" s="247"/>
+      <c r="E239" s="270"/>
       <c r="F239" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="199" t="s">
+      <c r="A240" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="B240" s="200" t="s">
+      <c r="B240" s="223" t="s">
         <v>198</v>
       </c>
-      <c r="C240" s="200" t="s">
+      <c r="C240" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D240" s="285" t="s">
+      <c r="D240" s="308" t="s">
         <v>452</v>
       </c>
-      <c r="E240" s="285"/>
-      <c r="F240" s="219">
+      <c r="E240" s="308"/>
+      <c r="F240" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="199"/>
-      <c r="B241" s="200"/>
-      <c r="C241" s="200"/>
+      <c r="A241" s="222"/>
+      <c r="B241" s="223"/>
+      <c r="C241" s="223"/>
       <c r="D241" s="113" t="s">
         <v>17</v>
       </c>
       <c r="E241" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="F241" s="219"/>
+      <c r="F241" s="242"/>
     </row>
     <row r="242" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A242" s="221"/>
-      <c r="B242" s="202"/>
-      <c r="C242" s="202"/>
+      <c r="A242" s="244"/>
+      <c r="B242" s="225"/>
+      <c r="C242" s="225"/>
       <c r="D242" s="114" t="s">
         <v>16</v>
       </c>
       <c r="E242" s="115" t="s">
         <v>454</v>
       </c>
-      <c r="F242" s="220"/>
+      <c r="F242" s="243"/>
     </row>
     <row r="244" spans="1:6" ht="15.75" thickBot="1">
       <c r="A244" s="97" t="s">
@@ -12303,10 +12804,10 @@
       <c r="C245" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D245" s="250" t="s">
+      <c r="D245" s="273" t="s">
         <v>35</v>
       </c>
-      <c r="E245" s="242"/>
+      <c r="E245" s="265"/>
       <c r="F245" s="35" t="s">
         <v>100</v>
       </c>
@@ -12321,55 +12822,55 @@
       <c r="C246" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D246" s="246" t="s">
+      <c r="D246" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E246" s="247"/>
+      <c r="E246" s="270"/>
       <c r="F246" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="199" t="s">
+      <c r="A247" s="222" t="s">
         <v>423</v>
       </c>
-      <c r="B247" s="200" t="s">
+      <c r="B247" s="223" t="s">
         <v>200</v>
       </c>
-      <c r="C247" s="200" t="s">
+      <c r="C247" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D247" s="251" t="s">
+      <c r="D247" s="274" t="s">
         <v>460</v>
       </c>
-      <c r="E247" s="252"/>
-      <c r="F247" s="219">
+      <c r="E247" s="275"/>
+      <c r="F247" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="199"/>
-      <c r="B248" s="200"/>
-      <c r="C248" s="200"/>
+      <c r="A248" s="222"/>
+      <c r="B248" s="223"/>
+      <c r="C248" s="223"/>
       <c r="D248" s="113" t="s">
         <v>17</v>
       </c>
       <c r="E248" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="F248" s="219"/>
+      <c r="F248" s="242"/>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="199"/>
-      <c r="B249" s="200"/>
-      <c r="C249" s="200"/>
+      <c r="A249" s="222"/>
+      <c r="B249" s="223"/>
+      <c r="C249" s="223"/>
       <c r="D249" s="113" t="s">
         <v>16</v>
       </c>
       <c r="E249" s="102" t="s">
         <v>457</v>
       </c>
-      <c r="F249" s="219"/>
+      <c r="F249" s="242"/>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="11" t="s">
@@ -12381,97 +12882,97 @@
       <c r="C250" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D250" s="246" t="s">
+      <c r="D250" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E250" s="247"/>
+      <c r="E250" s="270"/>
       <c r="F250" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="199" t="s">
+      <c r="A251" s="222" t="s">
         <v>376</v>
       </c>
-      <c r="B251" s="200" t="s">
+      <c r="B251" s="223" t="s">
         <v>201</v>
       </c>
-      <c r="C251" s="200" t="s">
+      <c r="C251" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D251" s="251" t="s">
+      <c r="D251" s="274" t="s">
         <v>459</v>
       </c>
-      <c r="E251" s="252"/>
-      <c r="F251" s="219">
+      <c r="E251" s="275"/>
+      <c r="F251" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="199"/>
-      <c r="B252" s="200"/>
-      <c r="C252" s="200"/>
+      <c r="A252" s="222"/>
+      <c r="B252" s="223"/>
+      <c r="C252" s="223"/>
       <c r="D252" s="113" t="s">
         <v>17</v>
       </c>
       <c r="E252" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="F252" s="219"/>
+      <c r="F252" s="242"/>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="199"/>
-      <c r="B253" s="200"/>
-      <c r="C253" s="200"/>
+      <c r="A253" s="222"/>
+      <c r="B253" s="223"/>
+      <c r="C253" s="223"/>
       <c r="D253" s="113" t="s">
         <v>16</v>
       </c>
       <c r="E253" s="102" t="s">
         <v>457</v>
       </c>
-      <c r="F253" s="219"/>
+      <c r="F253" s="242"/>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="199" t="s">
+      <c r="A254" s="222" t="s">
         <v>377</v>
       </c>
-      <c r="B254" s="200" t="s">
+      <c r="B254" s="223" t="s">
         <v>200</v>
       </c>
-      <c r="C254" s="200" t="s">
+      <c r="C254" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D254" s="245" t="s">
+      <c r="D254" s="268" t="s">
         <v>455</v>
       </c>
-      <c r="E254" s="245"/>
-      <c r="F254" s="219">
+      <c r="E254" s="268"/>
+      <c r="F254" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="199"/>
-      <c r="B255" s="200"/>
-      <c r="C255" s="200"/>
+      <c r="A255" s="222"/>
+      <c r="B255" s="223"/>
+      <c r="C255" s="223"/>
       <c r="D255" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E255" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="F255" s="219"/>
+      <c r="F255" s="242"/>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="199"/>
-      <c r="B256" s="200"/>
-      <c r="C256" s="200"/>
+      <c r="A256" s="222"/>
+      <c r="B256" s="223"/>
+      <c r="C256" s="223"/>
       <c r="D256" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="F256" s="219"/>
+      <c r="F256" s="242"/>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="11" t="s">
@@ -12483,55 +12984,55 @@
       <c r="C257" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D257" s="246" t="s">
+      <c r="D257" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E257" s="247"/>
+      <c r="E257" s="270"/>
       <c r="F257" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="199" t="s">
+      <c r="A258" s="222" t="s">
         <v>379</v>
       </c>
-      <c r="B258" s="200" t="s">
+      <c r="B258" s="223" t="s">
         <v>203</v>
       </c>
-      <c r="C258" s="200" t="s">
+      <c r="C258" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D258" s="245" t="s">
+      <c r="D258" s="268" t="s">
         <v>461</v>
       </c>
-      <c r="E258" s="245"/>
-      <c r="F258" s="219">
+      <c r="E258" s="268"/>
+      <c r="F258" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="199"/>
-      <c r="B259" s="200"/>
-      <c r="C259" s="200"/>
+      <c r="A259" s="222"/>
+      <c r="B259" s="223"/>
+      <c r="C259" s="223"/>
       <c r="D259" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E259" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="F259" s="219"/>
+      <c r="F259" s="242"/>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="199"/>
-      <c r="B260" s="200"/>
-      <c r="C260" s="200"/>
+      <c r="A260" s="222"/>
+      <c r="B260" s="223"/>
+      <c r="C260" s="223"/>
       <c r="D260" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E260" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="F260" s="219"/>
+      <c r="F260" s="242"/>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="11" t="s">
@@ -12543,97 +13044,97 @@
       <c r="C261" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D261" s="246" t="s">
+      <c r="D261" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E261" s="247"/>
+      <c r="E261" s="270"/>
       <c r="F261" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="199" t="s">
+      <c r="A262" s="222" t="s">
         <v>433</v>
       </c>
-      <c r="B262" s="200" t="s">
+      <c r="B262" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="C262" s="200" t="s">
+      <c r="C262" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D262" s="245" t="s">
+      <c r="D262" s="268" t="s">
         <v>462</v>
       </c>
-      <c r="E262" s="245"/>
-      <c r="F262" s="219">
+      <c r="E262" s="268"/>
+      <c r="F262" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="199"/>
-      <c r="B263" s="200"/>
-      <c r="C263" s="200"/>
+      <c r="A263" s="222"/>
+      <c r="B263" s="223"/>
+      <c r="C263" s="223"/>
       <c r="D263" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E263" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="F263" s="219"/>
+      <c r="F263" s="242"/>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="199"/>
-      <c r="B264" s="200"/>
-      <c r="C264" s="200"/>
+      <c r="A264" s="222"/>
+      <c r="B264" s="223"/>
+      <c r="C264" s="223"/>
       <c r="D264" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E264" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="F264" s="219"/>
+      <c r="F264" s="242"/>
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1">
-      <c r="A265" s="199" t="s">
+      <c r="A265" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="B265" s="200" t="s">
+      <c r="B265" s="223" t="s">
         <v>205</v>
       </c>
-      <c r="C265" s="200" t="s">
+      <c r="C265" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D265" s="245" t="s">
+      <c r="D265" s="268" t="s">
         <v>465</v>
       </c>
-      <c r="E265" s="245"/>
-      <c r="F265" s="219">
+      <c r="E265" s="268"/>
+      <c r="F265" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="199"/>
-      <c r="B266" s="200"/>
-      <c r="C266" s="200"/>
+      <c r="A266" s="222"/>
+      <c r="B266" s="223"/>
+      <c r="C266" s="223"/>
       <c r="D266" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E266" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="F266" s="219"/>
+      <c r="F266" s="242"/>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="199"/>
-      <c r="B267" s="200"/>
-      <c r="C267" s="200"/>
+      <c r="A267" s="222"/>
+      <c r="B267" s="223"/>
+      <c r="C267" s="223"/>
       <c r="D267" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E267" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="F267" s="219"/>
+      <c r="F267" s="242"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="11" t="s">
@@ -12645,55 +13146,55 @@
       <c r="C268" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D268" s="246" t="s">
+      <c r="D268" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E268" s="247"/>
+      <c r="E268" s="270"/>
       <c r="F268" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1">
-      <c r="A269" s="199" t="s">
+      <c r="A269" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="B269" s="200" t="s">
+      <c r="B269" s="223" t="s">
         <v>206</v>
       </c>
-      <c r="C269" s="200" t="s">
+      <c r="C269" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D269" s="245" t="s">
+      <c r="D269" s="268" t="s">
         <v>464</v>
       </c>
-      <c r="E269" s="245"/>
-      <c r="F269" s="219">
+      <c r="E269" s="268"/>
+      <c r="F269" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="199"/>
-      <c r="B270" s="200"/>
-      <c r="C270" s="200"/>
+      <c r="A270" s="222"/>
+      <c r="B270" s="223"/>
+      <c r="C270" s="223"/>
       <c r="D270" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E270" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="F270" s="219"/>
+      <c r="F270" s="242"/>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="199"/>
-      <c r="B271" s="200"/>
-      <c r="C271" s="200"/>
+      <c r="A271" s="222"/>
+      <c r="B271" s="223"/>
+      <c r="C271" s="223"/>
       <c r="D271" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E271" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="F271" s="219"/>
+      <c r="F271" s="242"/>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="11" t="s">
@@ -12705,55 +13206,55 @@
       <c r="C272" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D272" s="246" t="s">
+      <c r="D272" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E272" s="247"/>
+      <c r="E272" s="270"/>
       <c r="F272" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A273" s="199" t="s">
+      <c r="A273" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="B273" s="200" t="s">
+      <c r="B273" s="223" t="s">
         <v>207</v>
       </c>
-      <c r="C273" s="200" t="s">
+      <c r="C273" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D273" s="245" t="s">
+      <c r="D273" s="268" t="s">
         <v>463</v>
       </c>
-      <c r="E273" s="245"/>
-      <c r="F273" s="219">
+      <c r="E273" s="268"/>
+      <c r="F273" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="199"/>
-      <c r="B274" s="200"/>
-      <c r="C274" s="200"/>
+      <c r="A274" s="222"/>
+      <c r="B274" s="223"/>
+      <c r="C274" s="223"/>
       <c r="D274" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E274" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="F274" s="219"/>
+      <c r="F274" s="242"/>
     </row>
     <row r="275" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A275" s="221"/>
-      <c r="B275" s="202"/>
-      <c r="C275" s="202"/>
+      <c r="A275" s="244"/>
+      <c r="B275" s="225"/>
+      <c r="C275" s="225"/>
       <c r="D275" s="111" t="s">
         <v>16</v>
       </c>
       <c r="E275" s="117" t="s">
         <v>457</v>
       </c>
-      <c r="F275" s="220"/>
+      <c r="F275" s="243"/>
     </row>
     <row r="277" spans="1:6" ht="16.5" thickBot="1">
       <c r="A277" s="72" t="s">
@@ -12770,10 +13271,10 @@
       <c r="C278" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D278" s="250" t="s">
+      <c r="D278" s="273" t="s">
         <v>35</v>
       </c>
-      <c r="E278" s="242"/>
+      <c r="E278" s="265"/>
       <c r="F278" s="35" t="s">
         <v>100</v>
       </c>
@@ -12788,55 +13289,55 @@
       <c r="C279" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D279" s="246" t="s">
+      <c r="D279" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E279" s="247"/>
+      <c r="E279" s="270"/>
       <c r="F279" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A280" s="199" t="s">
+      <c r="A280" s="222" t="s">
         <v>439</v>
       </c>
-      <c r="B280" s="200" t="s">
+      <c r="B280" s="223" t="s">
         <v>209</v>
       </c>
-      <c r="C280" s="200" t="s">
+      <c r="C280" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D280" s="251" t="s">
+      <c r="D280" s="274" t="s">
         <v>467</v>
       </c>
-      <c r="E280" s="252"/>
-      <c r="F280" s="219">
+      <c r="E280" s="275"/>
+      <c r="F280" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="199"/>
-      <c r="B281" s="200"/>
-      <c r="C281" s="200"/>
+      <c r="A281" s="222"/>
+      <c r="B281" s="223"/>
+      <c r="C281" s="223"/>
       <c r="D281" s="113" t="s">
         <v>17</v>
       </c>
       <c r="E281" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="F281" s="219"/>
+      <c r="F281" s="242"/>
     </row>
     <row r="282" spans="1:6">
-      <c r="A282" s="199"/>
-      <c r="B282" s="200"/>
-      <c r="C282" s="200"/>
+      <c r="A282" s="222"/>
+      <c r="B282" s="223"/>
+      <c r="C282" s="223"/>
       <c r="D282" s="113" t="s">
         <v>16</v>
       </c>
       <c r="E282" s="102" t="s">
         <v>457</v>
       </c>
-      <c r="F282" s="219"/>
+      <c r="F282" s="242"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="11" t="s">
@@ -12848,55 +13349,55 @@
       <c r="C283" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D283" s="246" t="s">
+      <c r="D283" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E283" s="247"/>
+      <c r="E283" s="270"/>
       <c r="F283" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="199" t="s">
+      <c r="A284" s="222" t="s">
         <v>442</v>
       </c>
-      <c r="B284" s="200" t="s">
+      <c r="B284" s="223" t="s">
         <v>210</v>
       </c>
-      <c r="C284" s="200" t="s">
+      <c r="C284" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D284" s="251" t="s">
+      <c r="D284" s="274" t="s">
         <v>468</v>
       </c>
-      <c r="E284" s="252"/>
-      <c r="F284" s="219">
+      <c r="E284" s="275"/>
+      <c r="F284" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:6">
-      <c r="A285" s="199"/>
-      <c r="B285" s="200"/>
-      <c r="C285" s="200"/>
+      <c r="A285" s="222"/>
+      <c r="B285" s="223"/>
+      <c r="C285" s="223"/>
       <c r="D285" s="113" t="s">
         <v>17</v>
       </c>
       <c r="E285" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="F285" s="219"/>
+      <c r="F285" s="242"/>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="199"/>
-      <c r="B286" s="200"/>
-      <c r="C286" s="200"/>
+      <c r="A286" s="222"/>
+      <c r="B286" s="223"/>
+      <c r="C286" s="223"/>
       <c r="D286" s="113" t="s">
         <v>16</v>
       </c>
       <c r="E286" s="102" t="s">
         <v>457</v>
       </c>
-      <c r="F286" s="219"/>
+      <c r="F286" s="242"/>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="11" t="s">
@@ -12908,55 +13409,55 @@
       <c r="C287" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D287" s="246" t="s">
+      <c r="D287" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E287" s="247"/>
+      <c r="E287" s="270"/>
       <c r="F287" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="199" t="s">
+      <c r="A288" s="222" t="s">
         <v>377</v>
       </c>
-      <c r="B288" s="200" t="s">
+      <c r="B288" s="223" t="s">
         <v>211</v>
       </c>
-      <c r="C288" s="200" t="s">
+      <c r="C288" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D288" s="245" t="s">
+      <c r="D288" s="268" t="s">
         <v>469</v>
       </c>
-      <c r="E288" s="245"/>
-      <c r="F288" s="219">
+      <c r="E288" s="268"/>
+      <c r="F288" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="199"/>
-      <c r="B289" s="200"/>
-      <c r="C289" s="200"/>
+      <c r="A289" s="222"/>
+      <c r="B289" s="223"/>
+      <c r="C289" s="223"/>
       <c r="D289" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E289" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="F289" s="219"/>
+      <c r="F289" s="242"/>
     </row>
     <row r="290" spans="1:6">
-      <c r="A290" s="199"/>
-      <c r="B290" s="200"/>
-      <c r="C290" s="200"/>
+      <c r="A290" s="222"/>
+      <c r="B290" s="223"/>
+      <c r="C290" s="223"/>
       <c r="D290" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E290" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="F290" s="219"/>
+      <c r="F290" s="242"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="11" t="s">
@@ -12968,55 +13469,55 @@
       <c r="C291" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D291" s="246" t="s">
+      <c r="D291" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E291" s="247"/>
+      <c r="E291" s="270"/>
       <c r="F291" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="15" customHeight="1">
-      <c r="A292" s="199" t="s">
+      <c r="A292" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="B292" s="200" t="s">
+      <c r="B292" s="223" t="s">
         <v>466</v>
       </c>
-      <c r="C292" s="200" t="s">
+      <c r="C292" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D292" s="245" t="s">
+      <c r="D292" s="268" t="s">
         <v>470</v>
       </c>
-      <c r="E292" s="245"/>
-      <c r="F292" s="219">
+      <c r="E292" s="268"/>
+      <c r="F292" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="199"/>
-      <c r="B293" s="200"/>
-      <c r="C293" s="200"/>
+      <c r="A293" s="222"/>
+      <c r="B293" s="223"/>
+      <c r="C293" s="223"/>
       <c r="D293" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E293" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="F293" s="219"/>
+      <c r="F293" s="242"/>
     </row>
     <row r="294" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A294" s="221"/>
-      <c r="B294" s="202"/>
-      <c r="C294" s="202"/>
+      <c r="A294" s="244"/>
+      <c r="B294" s="225"/>
+      <c r="C294" s="225"/>
       <c r="D294" s="111" t="s">
         <v>16</v>
       </c>
       <c r="E294" s="117" t="s">
         <v>457</v>
       </c>
-      <c r="F294" s="220"/>
+      <c r="F294" s="243"/>
     </row>
     <row r="296" spans="1:6" ht="16.5" thickBot="1">
       <c r="A296" s="72" t="s">
@@ -13033,325 +13534,325 @@
       <c r="C297" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D297" s="250" t="s">
+      <c r="D297" s="273" t="s">
         <v>35</v>
       </c>
-      <c r="E297" s="242"/>
+      <c r="E297" s="265"/>
       <c r="F297" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="199" t="s">
+      <c r="A298" s="222" t="s">
         <v>473</v>
       </c>
-      <c r="B298" s="200" t="s">
+      <c r="B298" s="223" t="s">
         <v>214</v>
       </c>
-      <c r="C298" s="194" t="s">
+      <c r="C298" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D298" s="234" t="s">
+      <c r="D298" s="257" t="s">
         <v>479</v>
       </c>
-      <c r="E298" s="235"/>
-      <c r="F298" s="183">
+      <c r="E298" s="258"/>
+      <c r="F298" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="A299" s="199"/>
-      <c r="B299" s="200"/>
-      <c r="C299" s="194"/>
+      <c r="A299" s="222"/>
+      <c r="B299" s="223"/>
+      <c r="C299" s="217"/>
       <c r="D299" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E299" s="107" t="s">
         <v>481</v>
       </c>
-      <c r="F299" s="183"/>
+      <c r="F299" s="206"/>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="199"/>
-      <c r="B300" s="200"/>
-      <c r="C300" s="194"/>
+      <c r="A300" s="222"/>
+      <c r="B300" s="223"/>
+      <c r="C300" s="217"/>
       <c r="D300" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E300" s="107" t="s">
         <v>482</v>
       </c>
-      <c r="F300" s="183"/>
+      <c r="F300" s="206"/>
     </row>
     <row r="301" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A301" s="199"/>
-      <c r="B301" s="200"/>
-      <c r="C301" s="194"/>
-      <c r="D301" s="248" t="s">
+      <c r="A301" s="222"/>
+      <c r="B301" s="223"/>
+      <c r="C301" s="217"/>
+      <c r="D301" s="271" t="s">
         <v>497</v>
       </c>
-      <c r="E301" s="249"/>
-      <c r="F301" s="183"/>
+      <c r="E301" s="272"/>
+      <c r="F301" s="206"/>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="199" t="s">
+      <c r="A302" s="222" t="s">
         <v>474</v>
       </c>
-      <c r="B302" s="196" t="s">
+      <c r="B302" s="219" t="s">
         <v>471</v>
       </c>
-      <c r="C302" s="194" t="s">
+      <c r="C302" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D302" s="234" t="s">
+      <c r="D302" s="257" t="s">
         <v>480</v>
       </c>
-      <c r="E302" s="235"/>
-      <c r="F302" s="183">
+      <c r="E302" s="258"/>
+      <c r="F302" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="199"/>
-      <c r="B303" s="196"/>
-      <c r="C303" s="194"/>
+      <c r="A303" s="222"/>
+      <c r="B303" s="219"/>
+      <c r="C303" s="217"/>
       <c r="D303" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E303" s="107" t="s">
         <v>481</v>
       </c>
-      <c r="F303" s="183"/>
+      <c r="F303" s="206"/>
     </row>
     <row r="304" spans="1:6">
-      <c r="A304" s="199"/>
-      <c r="B304" s="196"/>
-      <c r="C304" s="194"/>
+      <c r="A304" s="222"/>
+      <c r="B304" s="219"/>
+      <c r="C304" s="217"/>
       <c r="D304" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E304" s="107" t="s">
         <v>482</v>
       </c>
-      <c r="F304" s="183"/>
+      <c r="F304" s="206"/>
     </row>
     <row r="305" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A305" s="199"/>
-      <c r="B305" s="196"/>
-      <c r="C305" s="194"/>
-      <c r="D305" s="248" t="s">
+      <c r="A305" s="222"/>
+      <c r="B305" s="219"/>
+      <c r="C305" s="217"/>
+      <c r="D305" s="271" t="s">
         <v>497</v>
       </c>
-      <c r="E305" s="249"/>
-      <c r="F305" s="183"/>
+      <c r="E305" s="272"/>
+      <c r="F305" s="206"/>
     </row>
     <row r="306" spans="1:6" ht="15" customHeight="1">
-      <c r="A306" s="199" t="s">
+      <c r="A306" s="222" t="s">
         <v>475</v>
       </c>
-      <c r="B306" s="196" t="s">
+      <c r="B306" s="219" t="s">
         <v>472</v>
       </c>
-      <c r="C306" s="194" t="s">
+      <c r="C306" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D306" s="234" t="s">
+      <c r="D306" s="257" t="s">
         <v>483</v>
       </c>
-      <c r="E306" s="235"/>
-      <c r="F306" s="183">
+      <c r="E306" s="258"/>
+      <c r="F306" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:6">
-      <c r="A307" s="199"/>
-      <c r="B307" s="196"/>
-      <c r="C307" s="194"/>
+      <c r="A307" s="222"/>
+      <c r="B307" s="219"/>
+      <c r="C307" s="217"/>
       <c r="D307" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E307" s="107" t="s">
         <v>481</v>
       </c>
-      <c r="F307" s="183"/>
+      <c r="F307" s="206"/>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="199"/>
-      <c r="B308" s="196"/>
-      <c r="C308" s="194"/>
+      <c r="A308" s="222"/>
+      <c r="B308" s="219"/>
+      <c r="C308" s="217"/>
       <c r="D308" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E308" s="107" t="s">
         <v>482</v>
       </c>
-      <c r="F308" s="183"/>
+      <c r="F308" s="206"/>
     </row>
     <row r="309" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A309" s="199"/>
-      <c r="B309" s="196"/>
-      <c r="C309" s="194"/>
-      <c r="D309" s="248" t="s">
+      <c r="A309" s="222"/>
+      <c r="B309" s="219"/>
+      <c r="C309" s="217"/>
+      <c r="D309" s="271" t="s">
         <v>497</v>
       </c>
-      <c r="E309" s="249"/>
-      <c r="F309" s="183"/>
+      <c r="E309" s="272"/>
+      <c r="F309" s="206"/>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="199" t="s">
+      <c r="A310" s="222" t="s">
         <v>439</v>
       </c>
-      <c r="B310" s="200" t="s">
+      <c r="B310" s="223" t="s">
         <v>217</v>
       </c>
-      <c r="C310" s="194" t="s">
+      <c r="C310" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D310" s="234" t="s">
+      <c r="D310" s="257" t="s">
         <v>484</v>
       </c>
-      <c r="E310" s="235"/>
-      <c r="F310" s="183">
+      <c r="E310" s="258"/>
+      <c r="F310" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="199"/>
-      <c r="B311" s="200"/>
-      <c r="C311" s="194"/>
+      <c r="A311" s="222"/>
+      <c r="B311" s="223"/>
+      <c r="C311" s="217"/>
       <c r="D311" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E311" s="107" t="s">
         <v>481</v>
       </c>
-      <c r="F311" s="183"/>
+      <c r="F311" s="206"/>
     </row>
     <row r="312" spans="1:6">
-      <c r="A312" s="199"/>
-      <c r="B312" s="200"/>
-      <c r="C312" s="194"/>
+      <c r="A312" s="222"/>
+      <c r="B312" s="223"/>
+      <c r="C312" s="217"/>
       <c r="D312" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E312" s="107" t="s">
         <v>482</v>
       </c>
-      <c r="F312" s="183"/>
+      <c r="F312" s="206"/>
     </row>
     <row r="313" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A313" s="199"/>
-      <c r="B313" s="200"/>
-      <c r="C313" s="194"/>
-      <c r="D313" s="248" t="s">
+      <c r="A313" s="222"/>
+      <c r="B313" s="223"/>
+      <c r="C313" s="217"/>
+      <c r="D313" s="271" t="s">
         <v>497</v>
       </c>
-      <c r="E313" s="249"/>
-      <c r="F313" s="183"/>
+      <c r="E313" s="272"/>
+      <c r="F313" s="206"/>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" s="199" t="s">
+      <c r="A314" s="222" t="s">
         <v>476</v>
       </c>
-      <c r="B314" s="200" t="s">
+      <c r="B314" s="223" t="s">
         <v>218</v>
       </c>
-      <c r="C314" s="194" t="s">
+      <c r="C314" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D314" s="234" t="s">
+      <c r="D314" s="257" t="s">
         <v>485</v>
       </c>
-      <c r="E314" s="235"/>
-      <c r="F314" s="183">
+      <c r="E314" s="258"/>
+      <c r="F314" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" s="199"/>
-      <c r="B315" s="200"/>
-      <c r="C315" s="194"/>
+      <c r="A315" s="222"/>
+      <c r="B315" s="223"/>
+      <c r="C315" s="217"/>
       <c r="D315" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E315" s="107" t="s">
         <v>481</v>
       </c>
-      <c r="F315" s="183"/>
+      <c r="F315" s="206"/>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" s="199"/>
-      <c r="B316" s="200"/>
-      <c r="C316" s="194"/>
+      <c r="A316" s="222"/>
+      <c r="B316" s="223"/>
+      <c r="C316" s="217"/>
       <c r="D316" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E316" s="107" t="s">
         <v>482</v>
       </c>
-      <c r="F316" s="183"/>
+      <c r="F316" s="206"/>
     </row>
     <row r="317" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A317" s="199"/>
-      <c r="B317" s="200"/>
-      <c r="C317" s="194"/>
-      <c r="D317" s="248" t="s">
+      <c r="A317" s="222"/>
+      <c r="B317" s="223"/>
+      <c r="C317" s="217"/>
+      <c r="D317" s="271" t="s">
         <v>497</v>
       </c>
-      <c r="E317" s="249"/>
-      <c r="F317" s="183"/>
+      <c r="E317" s="272"/>
+      <c r="F317" s="206"/>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="199" t="s">
+      <c r="A318" s="222" t="s">
         <v>477</v>
       </c>
-      <c r="B318" s="200" t="s">
+      <c r="B318" s="223" t="s">
         <v>219</v>
       </c>
-      <c r="C318" s="194" t="s">
+      <c r="C318" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D318" s="234" t="s">
+      <c r="D318" s="257" t="s">
         <v>486</v>
       </c>
-      <c r="E318" s="235"/>
-      <c r="F318" s="183">
+      <c r="E318" s="258"/>
+      <c r="F318" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="199"/>
-      <c r="B319" s="200"/>
-      <c r="C319" s="194"/>
+      <c r="A319" s="222"/>
+      <c r="B319" s="223"/>
+      <c r="C319" s="217"/>
       <c r="D319" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E319" s="107" t="s">
         <v>481</v>
       </c>
-      <c r="F319" s="183"/>
+      <c r="F319" s="206"/>
     </row>
     <row r="320" spans="1:6">
-      <c r="A320" s="199"/>
-      <c r="B320" s="200"/>
-      <c r="C320" s="194"/>
+      <c r="A320" s="222"/>
+      <c r="B320" s="223"/>
+      <c r="C320" s="217"/>
       <c r="D320" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E320" s="107" t="s">
         <v>482</v>
       </c>
-      <c r="F320" s="183"/>
+      <c r="F320" s="206"/>
     </row>
     <row r="321" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A321" s="199"/>
-      <c r="B321" s="200"/>
-      <c r="C321" s="194"/>
-      <c r="D321" s="248" t="s">
+      <c r="A321" s="222"/>
+      <c r="B321" s="223"/>
+      <c r="C321" s="217"/>
+      <c r="D321" s="271" t="s">
         <v>497</v>
       </c>
-      <c r="E321" s="249"/>
-      <c r="F321" s="183"/>
+      <c r="E321" s="272"/>
+      <c r="F321" s="206"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="11" t="s">
@@ -13363,55 +13864,55 @@
       <c r="C322" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D322" s="246" t="s">
+      <c r="D322" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E322" s="247"/>
+      <c r="E322" s="270"/>
       <c r="F322" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="15" customHeight="1">
-      <c r="A323" s="199" t="s">
+      <c r="A323" s="222" t="s">
         <v>228</v>
       </c>
-      <c r="B323" s="200" t="s">
+      <c r="B323" s="223" t="s">
         <v>220</v>
       </c>
-      <c r="C323" s="200" t="s">
+      <c r="C323" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D323" s="234" t="s">
+      <c r="D323" s="257" t="s">
         <v>487</v>
       </c>
-      <c r="E323" s="235"/>
-      <c r="F323" s="219">
+      <c r="E323" s="258"/>
+      <c r="F323" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="199"/>
-      <c r="B324" s="200"/>
-      <c r="C324" s="200"/>
+      <c r="A324" s="222"/>
+      <c r="B324" s="223"/>
+      <c r="C324" s="223"/>
       <c r="D324" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E324" s="107" t="s">
         <v>488</v>
       </c>
-      <c r="F324" s="219"/>
+      <c r="F324" s="242"/>
     </row>
     <row r="325" spans="1:6">
-      <c r="A325" s="199"/>
-      <c r="B325" s="200"/>
-      <c r="C325" s="200"/>
+      <c r="A325" s="222"/>
+      <c r="B325" s="223"/>
+      <c r="C325" s="223"/>
       <c r="D325" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E325" s="107" t="s">
         <v>489</v>
       </c>
-      <c r="F325" s="219"/>
+      <c r="F325" s="242"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="11" t="s">
@@ -13423,107 +13924,107 @@
       <c r="C326" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D326" s="246" t="s">
+      <c r="D326" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="E326" s="247"/>
+      <c r="E326" s="270"/>
       <c r="F326" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A327" s="199" t="s">
+      <c r="A327" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="B327" s="200" t="s">
+      <c r="B327" s="223" t="s">
         <v>221</v>
       </c>
-      <c r="C327" s="194" t="s">
+      <c r="C327" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D327" s="234" t="s">
+      <c r="D327" s="257" t="s">
         <v>490</v>
       </c>
-      <c r="E327" s="235"/>
-      <c r="F327" s="183">
+      <c r="E327" s="258"/>
+      <c r="F327" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:6">
-      <c r="A328" s="199"/>
-      <c r="B328" s="200"/>
-      <c r="C328" s="194"/>
+      <c r="A328" s="222"/>
+      <c r="B328" s="223"/>
+      <c r="C328" s="217"/>
       <c r="D328" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E328" s="107" t="s">
         <v>491</v>
       </c>
-      <c r="F328" s="183"/>
+      <c r="F328" s="206"/>
     </row>
     <row r="329" spans="1:6">
-      <c r="A329" s="199"/>
-      <c r="B329" s="200"/>
-      <c r="C329" s="194"/>
+      <c r="A329" s="222"/>
+      <c r="B329" s="223"/>
+      <c r="C329" s="217"/>
       <c r="D329" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E329" s="107" t="s">
         <v>492</v>
       </c>
-      <c r="F329" s="183"/>
+      <c r="F329" s="206"/>
     </row>
     <row r="330" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A330" s="199"/>
-      <c r="B330" s="200"/>
-      <c r="C330" s="194"/>
-      <c r="D330" s="248" t="s">
+      <c r="A330" s="222"/>
+      <c r="B330" s="223"/>
+      <c r="C330" s="217"/>
+      <c r="D330" s="271" t="s">
         <v>493</v>
       </c>
-      <c r="E330" s="249"/>
-      <c r="F330" s="183"/>
+      <c r="E330" s="272"/>
+      <c r="F330" s="206"/>
     </row>
     <row r="331" spans="1:6">
-      <c r="A331" s="199" t="s">
+      <c r="A331" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="B331" s="200" t="s">
+      <c r="B331" s="223" t="s">
         <v>222</v>
       </c>
-      <c r="C331" s="200" t="s">
+      <c r="C331" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="D331" s="245" t="s">
+      <c r="D331" s="268" t="s">
         <v>494</v>
       </c>
-      <c r="E331" s="245"/>
-      <c r="F331" s="219">
+      <c r="E331" s="268"/>
+      <c r="F331" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:6">
-      <c r="A332" s="199"/>
-      <c r="B332" s="200"/>
-      <c r="C332" s="200"/>
+      <c r="A332" s="222"/>
+      <c r="B332" s="223"/>
+      <c r="C332" s="223"/>
       <c r="D332" s="109" t="s">
         <v>17</v>
       </c>
       <c r="E332" s="108" t="s">
         <v>495</v>
       </c>
-      <c r="F332" s="219"/>
+      <c r="F332" s="242"/>
     </row>
     <row r="333" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A333" s="221"/>
-      <c r="B333" s="202"/>
-      <c r="C333" s="202"/>
+      <c r="A333" s="244"/>
+      <c r="B333" s="225"/>
+      <c r="C333" s="225"/>
       <c r="D333" s="111" t="s">
         <v>16</v>
       </c>
       <c r="E333" s="117" t="s">
         <v>496</v>
       </c>
-      <c r="F333" s="220"/>
+      <c r="F333" s="243"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E77:K92">
@@ -13959,24 +14460,24 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="316" t="s">
         <v>499</v>
       </c>
-      <c r="B3" s="290" t="s">
+      <c r="B3" s="313" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="290" t="s">
+      <c r="C3" s="313" t="s">
         <v>506</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290" t="s">
+      <c r="D3" s="313"/>
+      <c r="E3" s="313" t="s">
         <v>507</v>
       </c>
-      <c r="F3" s="291"/>
+      <c r="F3" s="314"/>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A4" s="294"/>
-      <c r="B4" s="292"/>
+      <c r="A4" s="317"/>
+      <c r="B4" s="315"/>
       <c r="C4" s="118" t="s">
         <v>508</v>
       </c>
@@ -13991,7 +14492,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="286" t="s">
+      <c r="A5" s="309" t="s">
         <v>500</v>
       </c>
       <c r="B5" s="119" t="s">
@@ -14003,13 +14504,13 @@
       <c r="D5" s="119" t="s">
         <v>511</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="311" t="s">
         <v>512</v>
       </c>
-      <c r="F5" s="289"/>
+      <c r="F5" s="312"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="286"/>
+      <c r="A6" s="309"/>
       <c r="B6" s="119" t="s">
         <v>504</v>
       </c>
@@ -14019,20 +14520,20 @@
       <c r="D6" s="119" t="s">
         <v>510</v>
       </c>
-      <c r="E6" s="288"/>
-      <c r="F6" s="289"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="286" t="s">
+      <c r="A7" s="309" t="s">
         <v>501</v>
       </c>
       <c r="B7" s="119" t="s">
         <v>503</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="311" t="s">
         <v>512</v>
       </c>
-      <c r="D7" s="288"/>
+      <c r="D7" s="311"/>
       <c r="E7" s="119" t="s">
         <v>511</v>
       </c>
@@ -14041,12 +14542,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="286"/>
+      <c r="A8" s="309"/>
       <c r="B8" s="119" t="s">
         <v>504</v>
       </c>
-      <c r="C8" s="288"/>
-      <c r="D8" s="288"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
       <c r="E8" s="119" t="s">
         <v>510</v>
       </c>
@@ -14055,7 +14556,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="286" t="s">
+      <c r="A9" s="309" t="s">
         <v>502</v>
       </c>
       <c r="B9" s="119" t="s">
@@ -14075,7 +14576,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="287"/>
+      <c r="A10" s="310"/>
       <c r="B10" s="127" t="s">
         <v>504</v>
       </c>
@@ -14177,7 +14678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A9AE1E-7B44-48EE-9880-A9E255AC8DD7}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A66" sqref="A66:D69"/>
     </sheetView>
   </sheetViews>
@@ -14985,8 +15486,8 @@
     </row>
     <row r="69" spans="5:9" ht="12" customHeight="1">
       <c r="E69" s="170"/>
-      <c r="H69" s="295"/>
-      <c r="I69" s="295"/>
+      <c r="H69" s="318"/>
+      <c r="I69" s="318"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15728,106 +16229,106 @@
       <c r="A4" t="s">
         <v>730</v>
       </c>
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="319" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="297"/>
-      <c r="D4" s="296" t="s">
+      <c r="C4" s="320"/>
+      <c r="D4" s="319" t="s">
         <v>734</v>
       </c>
-      <c r="E4" s="298"/>
-      <c r="F4" s="296" t="s">
+      <c r="E4" s="321"/>
+      <c r="F4" s="319" t="s">
         <v>735</v>
       </c>
-      <c r="G4" s="298"/>
-      <c r="H4" s="297" t="s">
+      <c r="G4" s="321"/>
+      <c r="H4" s="320" t="s">
         <v>736</v>
       </c>
-      <c r="I4" s="298"/>
+      <c r="I4" s="321"/>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="167" t="s">
         <v>737</v>
       </c>
-      <c r="B5" s="295" t="s">
+      <c r="B5" s="318" t="s">
         <v>737</v>
       </c>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295" t="s">
+      <c r="C5" s="318"/>
+      <c r="D5" s="318" t="s">
         <v>737</v>
       </c>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295" t="s">
+      <c r="E5" s="318"/>
+      <c r="F5" s="318" t="s">
         <v>737</v>
       </c>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295" t="s">
+      <c r="G5" s="318"/>
+      <c r="H5" s="318" t="s">
         <v>737</v>
       </c>
-      <c r="I5" s="295"/>
+      <c r="I5" s="318"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>731</v>
       </c>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="319" t="s">
         <v>738</v>
       </c>
-      <c r="C6" s="297"/>
-      <c r="D6" s="296" t="s">
+      <c r="C6" s="320"/>
+      <c r="D6" s="319" t="s">
         <v>739</v>
       </c>
-      <c r="E6" s="298"/>
-      <c r="F6" s="296" t="s">
+      <c r="E6" s="321"/>
+      <c r="F6" s="319" t="s">
         <v>740</v>
       </c>
-      <c r="G6" s="298"/>
-      <c r="H6" s="297" t="s">
+      <c r="G6" s="321"/>
+      <c r="H6" s="320" t="s">
         <v>741</v>
       </c>
-      <c r="I6" s="298"/>
+      <c r="I6" s="321"/>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" thickBot="1">
       <c r="A7" s="167" t="s">
         <v>737</v>
       </c>
-      <c r="B7" s="295" t="s">
+      <c r="B7" s="318" t="s">
         <v>737</v>
       </c>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295" t="s">
+      <c r="C7" s="318"/>
+      <c r="D7" s="318" t="s">
         <v>737</v>
       </c>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295" t="s">
+      <c r="E7" s="318"/>
+      <c r="F7" s="318" t="s">
         <v>737</v>
       </c>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295" t="s">
+      <c r="G7" s="318"/>
+      <c r="H7" s="318" t="s">
         <v>737</v>
       </c>
-      <c r="I7" s="295"/>
+      <c r="I7" s="318"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" t="s">
         <v>732</v>
       </c>
-      <c r="B8" s="296" t="s">
+      <c r="B8" s="319" t="s">
         <v>742</v>
       </c>
-      <c r="C8" s="297"/>
-      <c r="D8" s="296" t="s">
+      <c r="C8" s="320"/>
+      <c r="D8" s="319" t="s">
         <v>743</v>
       </c>
-      <c r="E8" s="298"/>
-      <c r="F8" s="296" t="s">
+      <c r="E8" s="321"/>
+      <c r="F8" s="319" t="s">
         <v>744</v>
       </c>
-      <c r="G8" s="298"/>
-      <c r="H8" s="297" t="s">
+      <c r="G8" s="321"/>
+      <c r="H8" s="320" t="s">
         <v>745</v>
       </c>
-      <c r="I8" s="298"/>
+      <c r="I8" s="321"/>
     </row>
     <row r="16" spans="1:9">
       <c r="D16" s="166" t="s">
